--- a/data/Excel/2.4.xlsx
+++ b/data/Excel/2.4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkl\source\repos\repo\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC57964-88A9-4009-BD8D-795B5DC99C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="430" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="435" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="2.0" sheetId="4" r:id="rId1"/>
@@ -268,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,7 +353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -700,36 +699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -744,22 +713,162 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -769,23 +878,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -794,7 +909,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -844,124 +959,205 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -969,97 +1165,40 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{CFAC6E1C-54FE-4A42-B159-B66B8D054117}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{C8434533-05F5-4DDC-AE57-44B8E9696D38}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1336,730 +1475,730 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D15035E-7F2C-40B9-9164-9BA65613F008}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.15625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.83984375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="10.578125" style="1" customWidth="1"/>
-    <col min="10" max="256" width="9.15625" style="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10.5703125" style="1" customWidth="1"/>
+    <col min="10" max="256" width="9.140625" style="1"/>
     <col min="257" max="257" width="17" style="1" customWidth="1"/>
-    <col min="258" max="259" width="9.15625" style="1"/>
-    <col min="260" max="260" width="48.41796875" style="1" customWidth="1"/>
-    <col min="261" max="261" width="22.15625" style="1" customWidth="1"/>
-    <col min="262" max="262" width="30.83984375" style="1" customWidth="1"/>
+    <col min="258" max="259" width="9.140625" style="1"/>
+    <col min="260" max="260" width="48.42578125" style="1" customWidth="1"/>
+    <col min="261" max="261" width="22.140625" style="1" customWidth="1"/>
+    <col min="262" max="262" width="30.85546875" style="1" customWidth="1"/>
     <col min="263" max="263" width="34" style="1" customWidth="1"/>
-    <col min="264" max="264" width="10.26171875" style="1" customWidth="1"/>
+    <col min="264" max="264" width="10.28515625" style="1" customWidth="1"/>
     <col min="265" max="265" width="11" style="1" customWidth="1"/>
-    <col min="266" max="512" width="9.15625" style="1"/>
+    <col min="266" max="512" width="9.140625" style="1"/>
     <col min="513" max="513" width="17" style="1" customWidth="1"/>
-    <col min="514" max="515" width="9.15625" style="1"/>
-    <col min="516" max="516" width="48.41796875" style="1" customWidth="1"/>
-    <col min="517" max="517" width="22.15625" style="1" customWidth="1"/>
-    <col min="518" max="518" width="30.83984375" style="1" customWidth="1"/>
+    <col min="514" max="515" width="9.140625" style="1"/>
+    <col min="516" max="516" width="48.42578125" style="1" customWidth="1"/>
+    <col min="517" max="517" width="22.140625" style="1" customWidth="1"/>
+    <col min="518" max="518" width="30.85546875" style="1" customWidth="1"/>
     <col min="519" max="519" width="34" style="1" customWidth="1"/>
-    <col min="520" max="520" width="10.26171875" style="1" customWidth="1"/>
+    <col min="520" max="520" width="10.28515625" style="1" customWidth="1"/>
     <col min="521" max="521" width="11" style="1" customWidth="1"/>
-    <col min="522" max="768" width="9.15625" style="1"/>
+    <col min="522" max="768" width="9.140625" style="1"/>
     <col min="769" max="769" width="17" style="1" customWidth="1"/>
-    <col min="770" max="771" width="9.15625" style="1"/>
-    <col min="772" max="772" width="48.41796875" style="1" customWidth="1"/>
-    <col min="773" max="773" width="22.15625" style="1" customWidth="1"/>
-    <col min="774" max="774" width="30.83984375" style="1" customWidth="1"/>
+    <col min="770" max="771" width="9.140625" style="1"/>
+    <col min="772" max="772" width="48.42578125" style="1" customWidth="1"/>
+    <col min="773" max="773" width="22.140625" style="1" customWidth="1"/>
+    <col min="774" max="774" width="30.85546875" style="1" customWidth="1"/>
     <col min="775" max="775" width="34" style="1" customWidth="1"/>
-    <col min="776" max="776" width="10.26171875" style="1" customWidth="1"/>
+    <col min="776" max="776" width="10.28515625" style="1" customWidth="1"/>
     <col min="777" max="777" width="11" style="1" customWidth="1"/>
-    <col min="778" max="1024" width="9.15625" style="1"/>
+    <col min="778" max="1024" width="9.140625" style="1"/>
     <col min="1025" max="1025" width="17" style="1" customWidth="1"/>
-    <col min="1026" max="1027" width="9.15625" style="1"/>
-    <col min="1028" max="1028" width="48.41796875" style="1" customWidth="1"/>
-    <col min="1029" max="1029" width="22.15625" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="30.83984375" style="1" customWidth="1"/>
+    <col min="1026" max="1027" width="9.140625" style="1"/>
+    <col min="1028" max="1028" width="48.42578125" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="22.140625" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="30.85546875" style="1" customWidth="1"/>
     <col min="1031" max="1031" width="34" style="1" customWidth="1"/>
-    <col min="1032" max="1032" width="10.26171875" style="1" customWidth="1"/>
+    <col min="1032" max="1032" width="10.28515625" style="1" customWidth="1"/>
     <col min="1033" max="1033" width="11" style="1" customWidth="1"/>
-    <col min="1034" max="1280" width="9.15625" style="1"/>
+    <col min="1034" max="1280" width="9.140625" style="1"/>
     <col min="1281" max="1281" width="17" style="1" customWidth="1"/>
-    <col min="1282" max="1283" width="9.15625" style="1"/>
-    <col min="1284" max="1284" width="48.41796875" style="1" customWidth="1"/>
-    <col min="1285" max="1285" width="22.15625" style="1" customWidth="1"/>
-    <col min="1286" max="1286" width="30.83984375" style="1" customWidth="1"/>
+    <col min="1282" max="1283" width="9.140625" style="1"/>
+    <col min="1284" max="1284" width="48.42578125" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="22.140625" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="30.85546875" style="1" customWidth="1"/>
     <col min="1287" max="1287" width="34" style="1" customWidth="1"/>
-    <col min="1288" max="1288" width="10.26171875" style="1" customWidth="1"/>
+    <col min="1288" max="1288" width="10.28515625" style="1" customWidth="1"/>
     <col min="1289" max="1289" width="11" style="1" customWidth="1"/>
-    <col min="1290" max="1536" width="9.15625" style="1"/>
+    <col min="1290" max="1536" width="9.140625" style="1"/>
     <col min="1537" max="1537" width="17" style="1" customWidth="1"/>
-    <col min="1538" max="1539" width="9.15625" style="1"/>
-    <col min="1540" max="1540" width="48.41796875" style="1" customWidth="1"/>
-    <col min="1541" max="1541" width="22.15625" style="1" customWidth="1"/>
-    <col min="1542" max="1542" width="30.83984375" style="1" customWidth="1"/>
+    <col min="1538" max="1539" width="9.140625" style="1"/>
+    <col min="1540" max="1540" width="48.42578125" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="22.140625" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="30.85546875" style="1" customWidth="1"/>
     <col min="1543" max="1543" width="34" style="1" customWidth="1"/>
-    <col min="1544" max="1544" width="10.26171875" style="1" customWidth="1"/>
+    <col min="1544" max="1544" width="10.28515625" style="1" customWidth="1"/>
     <col min="1545" max="1545" width="11" style="1" customWidth="1"/>
-    <col min="1546" max="1792" width="9.15625" style="1"/>
+    <col min="1546" max="1792" width="9.140625" style="1"/>
     <col min="1793" max="1793" width="17" style="1" customWidth="1"/>
-    <col min="1794" max="1795" width="9.15625" style="1"/>
-    <col min="1796" max="1796" width="48.41796875" style="1" customWidth="1"/>
-    <col min="1797" max="1797" width="22.15625" style="1" customWidth="1"/>
-    <col min="1798" max="1798" width="30.83984375" style="1" customWidth="1"/>
+    <col min="1794" max="1795" width="9.140625" style="1"/>
+    <col min="1796" max="1796" width="48.42578125" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="22.140625" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="30.85546875" style="1" customWidth="1"/>
     <col min="1799" max="1799" width="34" style="1" customWidth="1"/>
-    <col min="1800" max="1800" width="10.26171875" style="1" customWidth="1"/>
+    <col min="1800" max="1800" width="10.28515625" style="1" customWidth="1"/>
     <col min="1801" max="1801" width="11" style="1" customWidth="1"/>
-    <col min="1802" max="2048" width="9.15625" style="1"/>
+    <col min="1802" max="2048" width="9.140625" style="1"/>
     <col min="2049" max="2049" width="17" style="1" customWidth="1"/>
-    <col min="2050" max="2051" width="9.15625" style="1"/>
-    <col min="2052" max="2052" width="48.41796875" style="1" customWidth="1"/>
-    <col min="2053" max="2053" width="22.15625" style="1" customWidth="1"/>
-    <col min="2054" max="2054" width="30.83984375" style="1" customWidth="1"/>
+    <col min="2050" max="2051" width="9.140625" style="1"/>
+    <col min="2052" max="2052" width="48.42578125" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="22.140625" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="30.85546875" style="1" customWidth="1"/>
     <col min="2055" max="2055" width="34" style="1" customWidth="1"/>
-    <col min="2056" max="2056" width="10.26171875" style="1" customWidth="1"/>
+    <col min="2056" max="2056" width="10.28515625" style="1" customWidth="1"/>
     <col min="2057" max="2057" width="11" style="1" customWidth="1"/>
-    <col min="2058" max="2304" width="9.15625" style="1"/>
+    <col min="2058" max="2304" width="9.140625" style="1"/>
     <col min="2305" max="2305" width="17" style="1" customWidth="1"/>
-    <col min="2306" max="2307" width="9.15625" style="1"/>
-    <col min="2308" max="2308" width="48.41796875" style="1" customWidth="1"/>
-    <col min="2309" max="2309" width="22.15625" style="1" customWidth="1"/>
-    <col min="2310" max="2310" width="30.83984375" style="1" customWidth="1"/>
+    <col min="2306" max="2307" width="9.140625" style="1"/>
+    <col min="2308" max="2308" width="48.42578125" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="22.140625" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="30.85546875" style="1" customWidth="1"/>
     <col min="2311" max="2311" width="34" style="1" customWidth="1"/>
-    <col min="2312" max="2312" width="10.26171875" style="1" customWidth="1"/>
+    <col min="2312" max="2312" width="10.28515625" style="1" customWidth="1"/>
     <col min="2313" max="2313" width="11" style="1" customWidth="1"/>
-    <col min="2314" max="2560" width="9.15625" style="1"/>
+    <col min="2314" max="2560" width="9.140625" style="1"/>
     <col min="2561" max="2561" width="17" style="1" customWidth="1"/>
-    <col min="2562" max="2563" width="9.15625" style="1"/>
-    <col min="2564" max="2564" width="48.41796875" style="1" customWidth="1"/>
-    <col min="2565" max="2565" width="22.15625" style="1" customWidth="1"/>
-    <col min="2566" max="2566" width="30.83984375" style="1" customWidth="1"/>
+    <col min="2562" max="2563" width="9.140625" style="1"/>
+    <col min="2564" max="2564" width="48.42578125" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="22.140625" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="30.85546875" style="1" customWidth="1"/>
     <col min="2567" max="2567" width="34" style="1" customWidth="1"/>
-    <col min="2568" max="2568" width="10.26171875" style="1" customWidth="1"/>
+    <col min="2568" max="2568" width="10.28515625" style="1" customWidth="1"/>
     <col min="2569" max="2569" width="11" style="1" customWidth="1"/>
-    <col min="2570" max="2816" width="9.15625" style="1"/>
+    <col min="2570" max="2816" width="9.140625" style="1"/>
     <col min="2817" max="2817" width="17" style="1" customWidth="1"/>
-    <col min="2818" max="2819" width="9.15625" style="1"/>
-    <col min="2820" max="2820" width="48.41796875" style="1" customWidth="1"/>
-    <col min="2821" max="2821" width="22.15625" style="1" customWidth="1"/>
-    <col min="2822" max="2822" width="30.83984375" style="1" customWidth="1"/>
+    <col min="2818" max="2819" width="9.140625" style="1"/>
+    <col min="2820" max="2820" width="48.42578125" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="22.140625" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="30.85546875" style="1" customWidth="1"/>
     <col min="2823" max="2823" width="34" style="1" customWidth="1"/>
-    <col min="2824" max="2824" width="10.26171875" style="1" customWidth="1"/>
+    <col min="2824" max="2824" width="10.28515625" style="1" customWidth="1"/>
     <col min="2825" max="2825" width="11" style="1" customWidth="1"/>
-    <col min="2826" max="3072" width="9.15625" style="1"/>
+    <col min="2826" max="3072" width="9.140625" style="1"/>
     <col min="3073" max="3073" width="17" style="1" customWidth="1"/>
-    <col min="3074" max="3075" width="9.15625" style="1"/>
-    <col min="3076" max="3076" width="48.41796875" style="1" customWidth="1"/>
-    <col min="3077" max="3077" width="22.15625" style="1" customWidth="1"/>
-    <col min="3078" max="3078" width="30.83984375" style="1" customWidth="1"/>
+    <col min="3074" max="3075" width="9.140625" style="1"/>
+    <col min="3076" max="3076" width="48.42578125" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="22.140625" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="30.85546875" style="1" customWidth="1"/>
     <col min="3079" max="3079" width="34" style="1" customWidth="1"/>
-    <col min="3080" max="3080" width="10.26171875" style="1" customWidth="1"/>
+    <col min="3080" max="3080" width="10.28515625" style="1" customWidth="1"/>
     <col min="3081" max="3081" width="11" style="1" customWidth="1"/>
-    <col min="3082" max="3328" width="9.15625" style="1"/>
+    <col min="3082" max="3328" width="9.140625" style="1"/>
     <col min="3329" max="3329" width="17" style="1" customWidth="1"/>
-    <col min="3330" max="3331" width="9.15625" style="1"/>
-    <col min="3332" max="3332" width="48.41796875" style="1" customWidth="1"/>
-    <col min="3333" max="3333" width="22.15625" style="1" customWidth="1"/>
-    <col min="3334" max="3334" width="30.83984375" style="1" customWidth="1"/>
+    <col min="3330" max="3331" width="9.140625" style="1"/>
+    <col min="3332" max="3332" width="48.42578125" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="22.140625" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="30.85546875" style="1" customWidth="1"/>
     <col min="3335" max="3335" width="34" style="1" customWidth="1"/>
-    <col min="3336" max="3336" width="10.26171875" style="1" customWidth="1"/>
+    <col min="3336" max="3336" width="10.28515625" style="1" customWidth="1"/>
     <col min="3337" max="3337" width="11" style="1" customWidth="1"/>
-    <col min="3338" max="3584" width="9.15625" style="1"/>
+    <col min="3338" max="3584" width="9.140625" style="1"/>
     <col min="3585" max="3585" width="17" style="1" customWidth="1"/>
-    <col min="3586" max="3587" width="9.15625" style="1"/>
-    <col min="3588" max="3588" width="48.41796875" style="1" customWidth="1"/>
-    <col min="3589" max="3589" width="22.15625" style="1" customWidth="1"/>
-    <col min="3590" max="3590" width="30.83984375" style="1" customWidth="1"/>
+    <col min="3586" max="3587" width="9.140625" style="1"/>
+    <col min="3588" max="3588" width="48.42578125" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="22.140625" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="30.85546875" style="1" customWidth="1"/>
     <col min="3591" max="3591" width="34" style="1" customWidth="1"/>
-    <col min="3592" max="3592" width="10.26171875" style="1" customWidth="1"/>
+    <col min="3592" max="3592" width="10.28515625" style="1" customWidth="1"/>
     <col min="3593" max="3593" width="11" style="1" customWidth="1"/>
-    <col min="3594" max="3840" width="9.15625" style="1"/>
+    <col min="3594" max="3840" width="9.140625" style="1"/>
     <col min="3841" max="3841" width="17" style="1" customWidth="1"/>
-    <col min="3842" max="3843" width="9.15625" style="1"/>
-    <col min="3844" max="3844" width="48.41796875" style="1" customWidth="1"/>
-    <col min="3845" max="3845" width="22.15625" style="1" customWidth="1"/>
-    <col min="3846" max="3846" width="30.83984375" style="1" customWidth="1"/>
+    <col min="3842" max="3843" width="9.140625" style="1"/>
+    <col min="3844" max="3844" width="48.42578125" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="22.140625" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="30.85546875" style="1" customWidth="1"/>
     <col min="3847" max="3847" width="34" style="1" customWidth="1"/>
-    <col min="3848" max="3848" width="10.26171875" style="1" customWidth="1"/>
+    <col min="3848" max="3848" width="10.28515625" style="1" customWidth="1"/>
     <col min="3849" max="3849" width="11" style="1" customWidth="1"/>
-    <col min="3850" max="4096" width="9.15625" style="1"/>
+    <col min="3850" max="4096" width="9.140625" style="1"/>
     <col min="4097" max="4097" width="17" style="1" customWidth="1"/>
-    <col min="4098" max="4099" width="9.15625" style="1"/>
-    <col min="4100" max="4100" width="48.41796875" style="1" customWidth="1"/>
-    <col min="4101" max="4101" width="22.15625" style="1" customWidth="1"/>
-    <col min="4102" max="4102" width="30.83984375" style="1" customWidth="1"/>
+    <col min="4098" max="4099" width="9.140625" style="1"/>
+    <col min="4100" max="4100" width="48.42578125" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="22.140625" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="30.85546875" style="1" customWidth="1"/>
     <col min="4103" max="4103" width="34" style="1" customWidth="1"/>
-    <col min="4104" max="4104" width="10.26171875" style="1" customWidth="1"/>
+    <col min="4104" max="4104" width="10.28515625" style="1" customWidth="1"/>
     <col min="4105" max="4105" width="11" style="1" customWidth="1"/>
-    <col min="4106" max="4352" width="9.15625" style="1"/>
+    <col min="4106" max="4352" width="9.140625" style="1"/>
     <col min="4353" max="4353" width="17" style="1" customWidth="1"/>
-    <col min="4354" max="4355" width="9.15625" style="1"/>
-    <col min="4356" max="4356" width="48.41796875" style="1" customWidth="1"/>
-    <col min="4357" max="4357" width="22.15625" style="1" customWidth="1"/>
-    <col min="4358" max="4358" width="30.83984375" style="1" customWidth="1"/>
+    <col min="4354" max="4355" width="9.140625" style="1"/>
+    <col min="4356" max="4356" width="48.42578125" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="22.140625" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="30.85546875" style="1" customWidth="1"/>
     <col min="4359" max="4359" width="34" style="1" customWidth="1"/>
-    <col min="4360" max="4360" width="10.26171875" style="1" customWidth="1"/>
+    <col min="4360" max="4360" width="10.28515625" style="1" customWidth="1"/>
     <col min="4361" max="4361" width="11" style="1" customWidth="1"/>
-    <col min="4362" max="4608" width="9.15625" style="1"/>
+    <col min="4362" max="4608" width="9.140625" style="1"/>
     <col min="4609" max="4609" width="17" style="1" customWidth="1"/>
-    <col min="4610" max="4611" width="9.15625" style="1"/>
-    <col min="4612" max="4612" width="48.41796875" style="1" customWidth="1"/>
-    <col min="4613" max="4613" width="22.15625" style="1" customWidth="1"/>
-    <col min="4614" max="4614" width="30.83984375" style="1" customWidth="1"/>
+    <col min="4610" max="4611" width="9.140625" style="1"/>
+    <col min="4612" max="4612" width="48.42578125" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="22.140625" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="30.85546875" style="1" customWidth="1"/>
     <col min="4615" max="4615" width="34" style="1" customWidth="1"/>
-    <col min="4616" max="4616" width="10.26171875" style="1" customWidth="1"/>
+    <col min="4616" max="4616" width="10.28515625" style="1" customWidth="1"/>
     <col min="4617" max="4617" width="11" style="1" customWidth="1"/>
-    <col min="4618" max="4864" width="9.15625" style="1"/>
+    <col min="4618" max="4864" width="9.140625" style="1"/>
     <col min="4865" max="4865" width="17" style="1" customWidth="1"/>
-    <col min="4866" max="4867" width="9.15625" style="1"/>
-    <col min="4868" max="4868" width="48.41796875" style="1" customWidth="1"/>
-    <col min="4869" max="4869" width="22.15625" style="1" customWidth="1"/>
-    <col min="4870" max="4870" width="30.83984375" style="1" customWidth="1"/>
+    <col min="4866" max="4867" width="9.140625" style="1"/>
+    <col min="4868" max="4868" width="48.42578125" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="22.140625" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="30.85546875" style="1" customWidth="1"/>
     <col min="4871" max="4871" width="34" style="1" customWidth="1"/>
-    <col min="4872" max="4872" width="10.26171875" style="1" customWidth="1"/>
+    <col min="4872" max="4872" width="10.28515625" style="1" customWidth="1"/>
     <col min="4873" max="4873" width="11" style="1" customWidth="1"/>
-    <col min="4874" max="5120" width="9.15625" style="1"/>
+    <col min="4874" max="5120" width="9.140625" style="1"/>
     <col min="5121" max="5121" width="17" style="1" customWidth="1"/>
-    <col min="5122" max="5123" width="9.15625" style="1"/>
-    <col min="5124" max="5124" width="48.41796875" style="1" customWidth="1"/>
-    <col min="5125" max="5125" width="22.15625" style="1" customWidth="1"/>
-    <col min="5126" max="5126" width="30.83984375" style="1" customWidth="1"/>
+    <col min="5122" max="5123" width="9.140625" style="1"/>
+    <col min="5124" max="5124" width="48.42578125" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="22.140625" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="30.85546875" style="1" customWidth="1"/>
     <col min="5127" max="5127" width="34" style="1" customWidth="1"/>
-    <col min="5128" max="5128" width="10.26171875" style="1" customWidth="1"/>
+    <col min="5128" max="5128" width="10.28515625" style="1" customWidth="1"/>
     <col min="5129" max="5129" width="11" style="1" customWidth="1"/>
-    <col min="5130" max="5376" width="9.15625" style="1"/>
+    <col min="5130" max="5376" width="9.140625" style="1"/>
     <col min="5377" max="5377" width="17" style="1" customWidth="1"/>
-    <col min="5378" max="5379" width="9.15625" style="1"/>
-    <col min="5380" max="5380" width="48.41796875" style="1" customWidth="1"/>
-    <col min="5381" max="5381" width="22.15625" style="1" customWidth="1"/>
-    <col min="5382" max="5382" width="30.83984375" style="1" customWidth="1"/>
+    <col min="5378" max="5379" width="9.140625" style="1"/>
+    <col min="5380" max="5380" width="48.42578125" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="22.140625" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="30.85546875" style="1" customWidth="1"/>
     <col min="5383" max="5383" width="34" style="1" customWidth="1"/>
-    <col min="5384" max="5384" width="10.26171875" style="1" customWidth="1"/>
+    <col min="5384" max="5384" width="10.28515625" style="1" customWidth="1"/>
     <col min="5385" max="5385" width="11" style="1" customWidth="1"/>
-    <col min="5386" max="5632" width="9.15625" style="1"/>
+    <col min="5386" max="5632" width="9.140625" style="1"/>
     <col min="5633" max="5633" width="17" style="1" customWidth="1"/>
-    <col min="5634" max="5635" width="9.15625" style="1"/>
-    <col min="5636" max="5636" width="48.41796875" style="1" customWidth="1"/>
-    <col min="5637" max="5637" width="22.15625" style="1" customWidth="1"/>
-    <col min="5638" max="5638" width="30.83984375" style="1" customWidth="1"/>
+    <col min="5634" max="5635" width="9.140625" style="1"/>
+    <col min="5636" max="5636" width="48.42578125" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="22.140625" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="30.85546875" style="1" customWidth="1"/>
     <col min="5639" max="5639" width="34" style="1" customWidth="1"/>
-    <col min="5640" max="5640" width="10.26171875" style="1" customWidth="1"/>
+    <col min="5640" max="5640" width="10.28515625" style="1" customWidth="1"/>
     <col min="5641" max="5641" width="11" style="1" customWidth="1"/>
-    <col min="5642" max="5888" width="9.15625" style="1"/>
+    <col min="5642" max="5888" width="9.140625" style="1"/>
     <col min="5889" max="5889" width="17" style="1" customWidth="1"/>
-    <col min="5890" max="5891" width="9.15625" style="1"/>
-    <col min="5892" max="5892" width="48.41796875" style="1" customWidth="1"/>
-    <col min="5893" max="5893" width="22.15625" style="1" customWidth="1"/>
-    <col min="5894" max="5894" width="30.83984375" style="1" customWidth="1"/>
+    <col min="5890" max="5891" width="9.140625" style="1"/>
+    <col min="5892" max="5892" width="48.42578125" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="22.140625" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="30.85546875" style="1" customWidth="1"/>
     <col min="5895" max="5895" width="34" style="1" customWidth="1"/>
-    <col min="5896" max="5896" width="10.26171875" style="1" customWidth="1"/>
+    <col min="5896" max="5896" width="10.28515625" style="1" customWidth="1"/>
     <col min="5897" max="5897" width="11" style="1" customWidth="1"/>
-    <col min="5898" max="6144" width="9.15625" style="1"/>
+    <col min="5898" max="6144" width="9.140625" style="1"/>
     <col min="6145" max="6145" width="17" style="1" customWidth="1"/>
-    <col min="6146" max="6147" width="9.15625" style="1"/>
-    <col min="6148" max="6148" width="48.41796875" style="1" customWidth="1"/>
-    <col min="6149" max="6149" width="22.15625" style="1" customWidth="1"/>
-    <col min="6150" max="6150" width="30.83984375" style="1" customWidth="1"/>
+    <col min="6146" max="6147" width="9.140625" style="1"/>
+    <col min="6148" max="6148" width="48.42578125" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="22.140625" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="30.85546875" style="1" customWidth="1"/>
     <col min="6151" max="6151" width="34" style="1" customWidth="1"/>
-    <col min="6152" max="6152" width="10.26171875" style="1" customWidth="1"/>
+    <col min="6152" max="6152" width="10.28515625" style="1" customWidth="1"/>
     <col min="6153" max="6153" width="11" style="1" customWidth="1"/>
-    <col min="6154" max="6400" width="9.15625" style="1"/>
+    <col min="6154" max="6400" width="9.140625" style="1"/>
     <col min="6401" max="6401" width="17" style="1" customWidth="1"/>
-    <col min="6402" max="6403" width="9.15625" style="1"/>
-    <col min="6404" max="6404" width="48.41796875" style="1" customWidth="1"/>
-    <col min="6405" max="6405" width="22.15625" style="1" customWidth="1"/>
-    <col min="6406" max="6406" width="30.83984375" style="1" customWidth="1"/>
+    <col min="6402" max="6403" width="9.140625" style="1"/>
+    <col min="6404" max="6404" width="48.42578125" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="22.140625" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="30.85546875" style="1" customWidth="1"/>
     <col min="6407" max="6407" width="34" style="1" customWidth="1"/>
-    <col min="6408" max="6408" width="10.26171875" style="1" customWidth="1"/>
+    <col min="6408" max="6408" width="10.28515625" style="1" customWidth="1"/>
     <col min="6409" max="6409" width="11" style="1" customWidth="1"/>
-    <col min="6410" max="6656" width="9.15625" style="1"/>
+    <col min="6410" max="6656" width="9.140625" style="1"/>
     <col min="6657" max="6657" width="17" style="1" customWidth="1"/>
-    <col min="6658" max="6659" width="9.15625" style="1"/>
-    <col min="6660" max="6660" width="48.41796875" style="1" customWidth="1"/>
-    <col min="6661" max="6661" width="22.15625" style="1" customWidth="1"/>
-    <col min="6662" max="6662" width="30.83984375" style="1" customWidth="1"/>
+    <col min="6658" max="6659" width="9.140625" style="1"/>
+    <col min="6660" max="6660" width="48.42578125" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="22.140625" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="30.85546875" style="1" customWidth="1"/>
     <col min="6663" max="6663" width="34" style="1" customWidth="1"/>
-    <col min="6664" max="6664" width="10.26171875" style="1" customWidth="1"/>
+    <col min="6664" max="6664" width="10.28515625" style="1" customWidth="1"/>
     <col min="6665" max="6665" width="11" style="1" customWidth="1"/>
-    <col min="6666" max="6912" width="9.15625" style="1"/>
+    <col min="6666" max="6912" width="9.140625" style="1"/>
     <col min="6913" max="6913" width="17" style="1" customWidth="1"/>
-    <col min="6914" max="6915" width="9.15625" style="1"/>
-    <col min="6916" max="6916" width="48.41796875" style="1" customWidth="1"/>
-    <col min="6917" max="6917" width="22.15625" style="1" customWidth="1"/>
-    <col min="6918" max="6918" width="30.83984375" style="1" customWidth="1"/>
+    <col min="6914" max="6915" width="9.140625" style="1"/>
+    <col min="6916" max="6916" width="48.42578125" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="22.140625" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="30.85546875" style="1" customWidth="1"/>
     <col min="6919" max="6919" width="34" style="1" customWidth="1"/>
-    <col min="6920" max="6920" width="10.26171875" style="1" customWidth="1"/>
+    <col min="6920" max="6920" width="10.28515625" style="1" customWidth="1"/>
     <col min="6921" max="6921" width="11" style="1" customWidth="1"/>
-    <col min="6922" max="7168" width="9.15625" style="1"/>
+    <col min="6922" max="7168" width="9.140625" style="1"/>
     <col min="7169" max="7169" width="17" style="1" customWidth="1"/>
-    <col min="7170" max="7171" width="9.15625" style="1"/>
-    <col min="7172" max="7172" width="48.41796875" style="1" customWidth="1"/>
-    <col min="7173" max="7173" width="22.15625" style="1" customWidth="1"/>
-    <col min="7174" max="7174" width="30.83984375" style="1" customWidth="1"/>
+    <col min="7170" max="7171" width="9.140625" style="1"/>
+    <col min="7172" max="7172" width="48.42578125" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="22.140625" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="30.85546875" style="1" customWidth="1"/>
     <col min="7175" max="7175" width="34" style="1" customWidth="1"/>
-    <col min="7176" max="7176" width="10.26171875" style="1" customWidth="1"/>
+    <col min="7176" max="7176" width="10.28515625" style="1" customWidth="1"/>
     <col min="7177" max="7177" width="11" style="1" customWidth="1"/>
-    <col min="7178" max="7424" width="9.15625" style="1"/>
+    <col min="7178" max="7424" width="9.140625" style="1"/>
     <col min="7425" max="7425" width="17" style="1" customWidth="1"/>
-    <col min="7426" max="7427" width="9.15625" style="1"/>
-    <col min="7428" max="7428" width="48.41796875" style="1" customWidth="1"/>
-    <col min="7429" max="7429" width="22.15625" style="1" customWidth="1"/>
-    <col min="7430" max="7430" width="30.83984375" style="1" customWidth="1"/>
+    <col min="7426" max="7427" width="9.140625" style="1"/>
+    <col min="7428" max="7428" width="48.42578125" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="22.140625" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="30.85546875" style="1" customWidth="1"/>
     <col min="7431" max="7431" width="34" style="1" customWidth="1"/>
-    <col min="7432" max="7432" width="10.26171875" style="1" customWidth="1"/>
+    <col min="7432" max="7432" width="10.28515625" style="1" customWidth="1"/>
     <col min="7433" max="7433" width="11" style="1" customWidth="1"/>
-    <col min="7434" max="7680" width="9.15625" style="1"/>
+    <col min="7434" max="7680" width="9.140625" style="1"/>
     <col min="7681" max="7681" width="17" style="1" customWidth="1"/>
-    <col min="7682" max="7683" width="9.15625" style="1"/>
-    <col min="7684" max="7684" width="48.41796875" style="1" customWidth="1"/>
-    <col min="7685" max="7685" width="22.15625" style="1" customWidth="1"/>
-    <col min="7686" max="7686" width="30.83984375" style="1" customWidth="1"/>
+    <col min="7682" max="7683" width="9.140625" style="1"/>
+    <col min="7684" max="7684" width="48.42578125" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="22.140625" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="30.85546875" style="1" customWidth="1"/>
     <col min="7687" max="7687" width="34" style="1" customWidth="1"/>
-    <col min="7688" max="7688" width="10.26171875" style="1" customWidth="1"/>
+    <col min="7688" max="7688" width="10.28515625" style="1" customWidth="1"/>
     <col min="7689" max="7689" width="11" style="1" customWidth="1"/>
-    <col min="7690" max="7936" width="9.15625" style="1"/>
+    <col min="7690" max="7936" width="9.140625" style="1"/>
     <col min="7937" max="7937" width="17" style="1" customWidth="1"/>
-    <col min="7938" max="7939" width="9.15625" style="1"/>
-    <col min="7940" max="7940" width="48.41796875" style="1" customWidth="1"/>
-    <col min="7941" max="7941" width="22.15625" style="1" customWidth="1"/>
-    <col min="7942" max="7942" width="30.83984375" style="1" customWidth="1"/>
+    <col min="7938" max="7939" width="9.140625" style="1"/>
+    <col min="7940" max="7940" width="48.42578125" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="22.140625" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="30.85546875" style="1" customWidth="1"/>
     <col min="7943" max="7943" width="34" style="1" customWidth="1"/>
-    <col min="7944" max="7944" width="10.26171875" style="1" customWidth="1"/>
+    <col min="7944" max="7944" width="10.28515625" style="1" customWidth="1"/>
     <col min="7945" max="7945" width="11" style="1" customWidth="1"/>
-    <col min="7946" max="8192" width="9.15625" style="1"/>
+    <col min="7946" max="8192" width="9.140625" style="1"/>
     <col min="8193" max="8193" width="17" style="1" customWidth="1"/>
-    <col min="8194" max="8195" width="9.15625" style="1"/>
-    <col min="8196" max="8196" width="48.41796875" style="1" customWidth="1"/>
-    <col min="8197" max="8197" width="22.15625" style="1" customWidth="1"/>
-    <col min="8198" max="8198" width="30.83984375" style="1" customWidth="1"/>
+    <col min="8194" max="8195" width="9.140625" style="1"/>
+    <col min="8196" max="8196" width="48.42578125" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="22.140625" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="30.85546875" style="1" customWidth="1"/>
     <col min="8199" max="8199" width="34" style="1" customWidth="1"/>
-    <col min="8200" max="8200" width="10.26171875" style="1" customWidth="1"/>
+    <col min="8200" max="8200" width="10.28515625" style="1" customWidth="1"/>
     <col min="8201" max="8201" width="11" style="1" customWidth="1"/>
-    <col min="8202" max="8448" width="9.15625" style="1"/>
+    <col min="8202" max="8448" width="9.140625" style="1"/>
     <col min="8449" max="8449" width="17" style="1" customWidth="1"/>
-    <col min="8450" max="8451" width="9.15625" style="1"/>
-    <col min="8452" max="8452" width="48.41796875" style="1" customWidth="1"/>
-    <col min="8453" max="8453" width="22.15625" style="1" customWidth="1"/>
-    <col min="8454" max="8454" width="30.83984375" style="1" customWidth="1"/>
+    <col min="8450" max="8451" width="9.140625" style="1"/>
+    <col min="8452" max="8452" width="48.42578125" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="22.140625" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="30.85546875" style="1" customWidth="1"/>
     <col min="8455" max="8455" width="34" style="1" customWidth="1"/>
-    <col min="8456" max="8456" width="10.26171875" style="1" customWidth="1"/>
+    <col min="8456" max="8456" width="10.28515625" style="1" customWidth="1"/>
     <col min="8457" max="8457" width="11" style="1" customWidth="1"/>
-    <col min="8458" max="8704" width="9.15625" style="1"/>
+    <col min="8458" max="8704" width="9.140625" style="1"/>
     <col min="8705" max="8705" width="17" style="1" customWidth="1"/>
-    <col min="8706" max="8707" width="9.15625" style="1"/>
-    <col min="8708" max="8708" width="48.41796875" style="1" customWidth="1"/>
-    <col min="8709" max="8709" width="22.15625" style="1" customWidth="1"/>
-    <col min="8710" max="8710" width="30.83984375" style="1" customWidth="1"/>
+    <col min="8706" max="8707" width="9.140625" style="1"/>
+    <col min="8708" max="8708" width="48.42578125" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="22.140625" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="30.85546875" style="1" customWidth="1"/>
     <col min="8711" max="8711" width="34" style="1" customWidth="1"/>
-    <col min="8712" max="8712" width="10.26171875" style="1" customWidth="1"/>
+    <col min="8712" max="8712" width="10.28515625" style="1" customWidth="1"/>
     <col min="8713" max="8713" width="11" style="1" customWidth="1"/>
-    <col min="8714" max="8960" width="9.15625" style="1"/>
+    <col min="8714" max="8960" width="9.140625" style="1"/>
     <col min="8961" max="8961" width="17" style="1" customWidth="1"/>
-    <col min="8962" max="8963" width="9.15625" style="1"/>
-    <col min="8964" max="8964" width="48.41796875" style="1" customWidth="1"/>
-    <col min="8965" max="8965" width="22.15625" style="1" customWidth="1"/>
-    <col min="8966" max="8966" width="30.83984375" style="1" customWidth="1"/>
+    <col min="8962" max="8963" width="9.140625" style="1"/>
+    <col min="8964" max="8964" width="48.42578125" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="22.140625" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="30.85546875" style="1" customWidth="1"/>
     <col min="8967" max="8967" width="34" style="1" customWidth="1"/>
-    <col min="8968" max="8968" width="10.26171875" style="1" customWidth="1"/>
+    <col min="8968" max="8968" width="10.28515625" style="1" customWidth="1"/>
     <col min="8969" max="8969" width="11" style="1" customWidth="1"/>
-    <col min="8970" max="9216" width="9.15625" style="1"/>
+    <col min="8970" max="9216" width="9.140625" style="1"/>
     <col min="9217" max="9217" width="17" style="1" customWidth="1"/>
-    <col min="9218" max="9219" width="9.15625" style="1"/>
-    <col min="9220" max="9220" width="48.41796875" style="1" customWidth="1"/>
-    <col min="9221" max="9221" width="22.15625" style="1" customWidth="1"/>
-    <col min="9222" max="9222" width="30.83984375" style="1" customWidth="1"/>
+    <col min="9218" max="9219" width="9.140625" style="1"/>
+    <col min="9220" max="9220" width="48.42578125" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="22.140625" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="30.85546875" style="1" customWidth="1"/>
     <col min="9223" max="9223" width="34" style="1" customWidth="1"/>
-    <col min="9224" max="9224" width="10.26171875" style="1" customWidth="1"/>
+    <col min="9224" max="9224" width="10.28515625" style="1" customWidth="1"/>
     <col min="9225" max="9225" width="11" style="1" customWidth="1"/>
-    <col min="9226" max="9472" width="9.15625" style="1"/>
+    <col min="9226" max="9472" width="9.140625" style="1"/>
     <col min="9473" max="9473" width="17" style="1" customWidth="1"/>
-    <col min="9474" max="9475" width="9.15625" style="1"/>
-    <col min="9476" max="9476" width="48.41796875" style="1" customWidth="1"/>
-    <col min="9477" max="9477" width="22.15625" style="1" customWidth="1"/>
-    <col min="9478" max="9478" width="30.83984375" style="1" customWidth="1"/>
+    <col min="9474" max="9475" width="9.140625" style="1"/>
+    <col min="9476" max="9476" width="48.42578125" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="22.140625" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="30.85546875" style="1" customWidth="1"/>
     <col min="9479" max="9479" width="34" style="1" customWidth="1"/>
-    <col min="9480" max="9480" width="10.26171875" style="1" customWidth="1"/>
+    <col min="9480" max="9480" width="10.28515625" style="1" customWidth="1"/>
     <col min="9481" max="9481" width="11" style="1" customWidth="1"/>
-    <col min="9482" max="9728" width="9.15625" style="1"/>
+    <col min="9482" max="9728" width="9.140625" style="1"/>
     <col min="9729" max="9729" width="17" style="1" customWidth="1"/>
-    <col min="9730" max="9731" width="9.15625" style="1"/>
-    <col min="9732" max="9732" width="48.41796875" style="1" customWidth="1"/>
-    <col min="9733" max="9733" width="22.15625" style="1" customWidth="1"/>
-    <col min="9734" max="9734" width="30.83984375" style="1" customWidth="1"/>
+    <col min="9730" max="9731" width="9.140625" style="1"/>
+    <col min="9732" max="9732" width="48.42578125" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="22.140625" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="30.85546875" style="1" customWidth="1"/>
     <col min="9735" max="9735" width="34" style="1" customWidth="1"/>
-    <col min="9736" max="9736" width="10.26171875" style="1" customWidth="1"/>
+    <col min="9736" max="9736" width="10.28515625" style="1" customWidth="1"/>
     <col min="9737" max="9737" width="11" style="1" customWidth="1"/>
-    <col min="9738" max="9984" width="9.15625" style="1"/>
+    <col min="9738" max="9984" width="9.140625" style="1"/>
     <col min="9985" max="9985" width="17" style="1" customWidth="1"/>
-    <col min="9986" max="9987" width="9.15625" style="1"/>
-    <col min="9988" max="9988" width="48.41796875" style="1" customWidth="1"/>
-    <col min="9989" max="9989" width="22.15625" style="1" customWidth="1"/>
-    <col min="9990" max="9990" width="30.83984375" style="1" customWidth="1"/>
+    <col min="9986" max="9987" width="9.140625" style="1"/>
+    <col min="9988" max="9988" width="48.42578125" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="22.140625" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="30.85546875" style="1" customWidth="1"/>
     <col min="9991" max="9991" width="34" style="1" customWidth="1"/>
-    <col min="9992" max="9992" width="10.26171875" style="1" customWidth="1"/>
+    <col min="9992" max="9992" width="10.28515625" style="1" customWidth="1"/>
     <col min="9993" max="9993" width="11" style="1" customWidth="1"/>
-    <col min="9994" max="10240" width="9.15625" style="1"/>
+    <col min="9994" max="10240" width="9.140625" style="1"/>
     <col min="10241" max="10241" width="17" style="1" customWidth="1"/>
-    <col min="10242" max="10243" width="9.15625" style="1"/>
-    <col min="10244" max="10244" width="48.41796875" style="1" customWidth="1"/>
-    <col min="10245" max="10245" width="22.15625" style="1" customWidth="1"/>
-    <col min="10246" max="10246" width="30.83984375" style="1" customWidth="1"/>
+    <col min="10242" max="10243" width="9.140625" style="1"/>
+    <col min="10244" max="10244" width="48.42578125" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="22.140625" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="30.85546875" style="1" customWidth="1"/>
     <col min="10247" max="10247" width="34" style="1" customWidth="1"/>
-    <col min="10248" max="10248" width="10.26171875" style="1" customWidth="1"/>
+    <col min="10248" max="10248" width="10.28515625" style="1" customWidth="1"/>
     <col min="10249" max="10249" width="11" style="1" customWidth="1"/>
-    <col min="10250" max="10496" width="9.15625" style="1"/>
+    <col min="10250" max="10496" width="9.140625" style="1"/>
     <col min="10497" max="10497" width="17" style="1" customWidth="1"/>
-    <col min="10498" max="10499" width="9.15625" style="1"/>
-    <col min="10500" max="10500" width="48.41796875" style="1" customWidth="1"/>
-    <col min="10501" max="10501" width="22.15625" style="1" customWidth="1"/>
-    <col min="10502" max="10502" width="30.83984375" style="1" customWidth="1"/>
+    <col min="10498" max="10499" width="9.140625" style="1"/>
+    <col min="10500" max="10500" width="48.42578125" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="22.140625" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="30.85546875" style="1" customWidth="1"/>
     <col min="10503" max="10503" width="34" style="1" customWidth="1"/>
-    <col min="10504" max="10504" width="10.26171875" style="1" customWidth="1"/>
+    <col min="10504" max="10504" width="10.28515625" style="1" customWidth="1"/>
     <col min="10505" max="10505" width="11" style="1" customWidth="1"/>
-    <col min="10506" max="10752" width="9.15625" style="1"/>
+    <col min="10506" max="10752" width="9.140625" style="1"/>
     <col min="10753" max="10753" width="17" style="1" customWidth="1"/>
-    <col min="10754" max="10755" width="9.15625" style="1"/>
-    <col min="10756" max="10756" width="48.41796875" style="1" customWidth="1"/>
-    <col min="10757" max="10757" width="22.15625" style="1" customWidth="1"/>
-    <col min="10758" max="10758" width="30.83984375" style="1" customWidth="1"/>
+    <col min="10754" max="10755" width="9.140625" style="1"/>
+    <col min="10756" max="10756" width="48.42578125" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="22.140625" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="30.85546875" style="1" customWidth="1"/>
     <col min="10759" max="10759" width="34" style="1" customWidth="1"/>
-    <col min="10760" max="10760" width="10.26171875" style="1" customWidth="1"/>
+    <col min="10760" max="10760" width="10.28515625" style="1" customWidth="1"/>
     <col min="10761" max="10761" width="11" style="1" customWidth="1"/>
-    <col min="10762" max="11008" width="9.15625" style="1"/>
+    <col min="10762" max="11008" width="9.140625" style="1"/>
     <col min="11009" max="11009" width="17" style="1" customWidth="1"/>
-    <col min="11010" max="11011" width="9.15625" style="1"/>
-    <col min="11012" max="11012" width="48.41796875" style="1" customWidth="1"/>
-    <col min="11013" max="11013" width="22.15625" style="1" customWidth="1"/>
-    <col min="11014" max="11014" width="30.83984375" style="1" customWidth="1"/>
+    <col min="11010" max="11011" width="9.140625" style="1"/>
+    <col min="11012" max="11012" width="48.42578125" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="22.140625" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="30.85546875" style="1" customWidth="1"/>
     <col min="11015" max="11015" width="34" style="1" customWidth="1"/>
-    <col min="11016" max="11016" width="10.26171875" style="1" customWidth="1"/>
+    <col min="11016" max="11016" width="10.28515625" style="1" customWidth="1"/>
     <col min="11017" max="11017" width="11" style="1" customWidth="1"/>
-    <col min="11018" max="11264" width="9.15625" style="1"/>
+    <col min="11018" max="11264" width="9.140625" style="1"/>
     <col min="11265" max="11265" width="17" style="1" customWidth="1"/>
-    <col min="11266" max="11267" width="9.15625" style="1"/>
-    <col min="11268" max="11268" width="48.41796875" style="1" customWidth="1"/>
-    <col min="11269" max="11269" width="22.15625" style="1" customWidth="1"/>
-    <col min="11270" max="11270" width="30.83984375" style="1" customWidth="1"/>
+    <col min="11266" max="11267" width="9.140625" style="1"/>
+    <col min="11268" max="11268" width="48.42578125" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="22.140625" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="30.85546875" style="1" customWidth="1"/>
     <col min="11271" max="11271" width="34" style="1" customWidth="1"/>
-    <col min="11272" max="11272" width="10.26171875" style="1" customWidth="1"/>
+    <col min="11272" max="11272" width="10.28515625" style="1" customWidth="1"/>
     <col min="11273" max="11273" width="11" style="1" customWidth="1"/>
-    <col min="11274" max="11520" width="9.15625" style="1"/>
+    <col min="11274" max="11520" width="9.140625" style="1"/>
     <col min="11521" max="11521" width="17" style="1" customWidth="1"/>
-    <col min="11522" max="11523" width="9.15625" style="1"/>
-    <col min="11524" max="11524" width="48.41796875" style="1" customWidth="1"/>
-    <col min="11525" max="11525" width="22.15625" style="1" customWidth="1"/>
-    <col min="11526" max="11526" width="30.83984375" style="1" customWidth="1"/>
+    <col min="11522" max="11523" width="9.140625" style="1"/>
+    <col min="11524" max="11524" width="48.42578125" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="22.140625" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="30.85546875" style="1" customWidth="1"/>
     <col min="11527" max="11527" width="34" style="1" customWidth="1"/>
-    <col min="11528" max="11528" width="10.26171875" style="1" customWidth="1"/>
+    <col min="11528" max="11528" width="10.28515625" style="1" customWidth="1"/>
     <col min="11529" max="11529" width="11" style="1" customWidth="1"/>
-    <col min="11530" max="11776" width="9.15625" style="1"/>
+    <col min="11530" max="11776" width="9.140625" style="1"/>
     <col min="11777" max="11777" width="17" style="1" customWidth="1"/>
-    <col min="11778" max="11779" width="9.15625" style="1"/>
-    <col min="11780" max="11780" width="48.41796875" style="1" customWidth="1"/>
-    <col min="11781" max="11781" width="22.15625" style="1" customWidth="1"/>
-    <col min="11782" max="11782" width="30.83984375" style="1" customWidth="1"/>
+    <col min="11778" max="11779" width="9.140625" style="1"/>
+    <col min="11780" max="11780" width="48.42578125" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="22.140625" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="30.85546875" style="1" customWidth="1"/>
     <col min="11783" max="11783" width="34" style="1" customWidth="1"/>
-    <col min="11784" max="11784" width="10.26171875" style="1" customWidth="1"/>
+    <col min="11784" max="11784" width="10.28515625" style="1" customWidth="1"/>
     <col min="11785" max="11785" width="11" style="1" customWidth="1"/>
-    <col min="11786" max="12032" width="9.15625" style="1"/>
+    <col min="11786" max="12032" width="9.140625" style="1"/>
     <col min="12033" max="12033" width="17" style="1" customWidth="1"/>
-    <col min="12034" max="12035" width="9.15625" style="1"/>
-    <col min="12036" max="12036" width="48.41796875" style="1" customWidth="1"/>
-    <col min="12037" max="12037" width="22.15625" style="1" customWidth="1"/>
-    <col min="12038" max="12038" width="30.83984375" style="1" customWidth="1"/>
+    <col min="12034" max="12035" width="9.140625" style="1"/>
+    <col min="12036" max="12036" width="48.42578125" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="22.140625" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="30.85546875" style="1" customWidth="1"/>
     <col min="12039" max="12039" width="34" style="1" customWidth="1"/>
-    <col min="12040" max="12040" width="10.26171875" style="1" customWidth="1"/>
+    <col min="12040" max="12040" width="10.28515625" style="1" customWidth="1"/>
     <col min="12041" max="12041" width="11" style="1" customWidth="1"/>
-    <col min="12042" max="12288" width="9.15625" style="1"/>
+    <col min="12042" max="12288" width="9.140625" style="1"/>
     <col min="12289" max="12289" width="17" style="1" customWidth="1"/>
-    <col min="12290" max="12291" width="9.15625" style="1"/>
-    <col min="12292" max="12292" width="48.41796875" style="1" customWidth="1"/>
-    <col min="12293" max="12293" width="22.15625" style="1" customWidth="1"/>
-    <col min="12294" max="12294" width="30.83984375" style="1" customWidth="1"/>
+    <col min="12290" max="12291" width="9.140625" style="1"/>
+    <col min="12292" max="12292" width="48.42578125" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="22.140625" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="30.85546875" style="1" customWidth="1"/>
     <col min="12295" max="12295" width="34" style="1" customWidth="1"/>
-    <col min="12296" max="12296" width="10.26171875" style="1" customWidth="1"/>
+    <col min="12296" max="12296" width="10.28515625" style="1" customWidth="1"/>
     <col min="12297" max="12297" width="11" style="1" customWidth="1"/>
-    <col min="12298" max="12544" width="9.15625" style="1"/>
+    <col min="12298" max="12544" width="9.140625" style="1"/>
     <col min="12545" max="12545" width="17" style="1" customWidth="1"/>
-    <col min="12546" max="12547" width="9.15625" style="1"/>
-    <col min="12548" max="12548" width="48.41796875" style="1" customWidth="1"/>
-    <col min="12549" max="12549" width="22.15625" style="1" customWidth="1"/>
-    <col min="12550" max="12550" width="30.83984375" style="1" customWidth="1"/>
+    <col min="12546" max="12547" width="9.140625" style="1"/>
+    <col min="12548" max="12548" width="48.42578125" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="22.140625" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="30.85546875" style="1" customWidth="1"/>
     <col min="12551" max="12551" width="34" style="1" customWidth="1"/>
-    <col min="12552" max="12552" width="10.26171875" style="1" customWidth="1"/>
+    <col min="12552" max="12552" width="10.28515625" style="1" customWidth="1"/>
     <col min="12553" max="12553" width="11" style="1" customWidth="1"/>
-    <col min="12554" max="12800" width="9.15625" style="1"/>
+    <col min="12554" max="12800" width="9.140625" style="1"/>
     <col min="12801" max="12801" width="17" style="1" customWidth="1"/>
-    <col min="12802" max="12803" width="9.15625" style="1"/>
-    <col min="12804" max="12804" width="48.41796875" style="1" customWidth="1"/>
-    <col min="12805" max="12805" width="22.15625" style="1" customWidth="1"/>
-    <col min="12806" max="12806" width="30.83984375" style="1" customWidth="1"/>
+    <col min="12802" max="12803" width="9.140625" style="1"/>
+    <col min="12804" max="12804" width="48.42578125" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="22.140625" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="30.85546875" style="1" customWidth="1"/>
     <col min="12807" max="12807" width="34" style="1" customWidth="1"/>
-    <col min="12808" max="12808" width="10.26171875" style="1" customWidth="1"/>
+    <col min="12808" max="12808" width="10.28515625" style="1" customWidth="1"/>
     <col min="12809" max="12809" width="11" style="1" customWidth="1"/>
-    <col min="12810" max="13056" width="9.15625" style="1"/>
+    <col min="12810" max="13056" width="9.140625" style="1"/>
     <col min="13057" max="13057" width="17" style="1" customWidth="1"/>
-    <col min="13058" max="13059" width="9.15625" style="1"/>
-    <col min="13060" max="13060" width="48.41796875" style="1" customWidth="1"/>
-    <col min="13061" max="13061" width="22.15625" style="1" customWidth="1"/>
-    <col min="13062" max="13062" width="30.83984375" style="1" customWidth="1"/>
+    <col min="13058" max="13059" width="9.140625" style="1"/>
+    <col min="13060" max="13060" width="48.42578125" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="22.140625" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="30.85546875" style="1" customWidth="1"/>
     <col min="13063" max="13063" width="34" style="1" customWidth="1"/>
-    <col min="13064" max="13064" width="10.26171875" style="1" customWidth="1"/>
+    <col min="13064" max="13064" width="10.28515625" style="1" customWidth="1"/>
     <col min="13065" max="13065" width="11" style="1" customWidth="1"/>
-    <col min="13066" max="13312" width="9.15625" style="1"/>
+    <col min="13066" max="13312" width="9.140625" style="1"/>
     <col min="13313" max="13313" width="17" style="1" customWidth="1"/>
-    <col min="13314" max="13315" width="9.15625" style="1"/>
-    <col min="13316" max="13316" width="48.41796875" style="1" customWidth="1"/>
-    <col min="13317" max="13317" width="22.15625" style="1" customWidth="1"/>
-    <col min="13318" max="13318" width="30.83984375" style="1" customWidth="1"/>
+    <col min="13314" max="13315" width="9.140625" style="1"/>
+    <col min="13316" max="13316" width="48.42578125" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="22.140625" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="30.85546875" style="1" customWidth="1"/>
     <col min="13319" max="13319" width="34" style="1" customWidth="1"/>
-    <col min="13320" max="13320" width="10.26171875" style="1" customWidth="1"/>
+    <col min="13320" max="13320" width="10.28515625" style="1" customWidth="1"/>
     <col min="13321" max="13321" width="11" style="1" customWidth="1"/>
-    <col min="13322" max="13568" width="9.15625" style="1"/>
+    <col min="13322" max="13568" width="9.140625" style="1"/>
     <col min="13569" max="13569" width="17" style="1" customWidth="1"/>
-    <col min="13570" max="13571" width="9.15625" style="1"/>
-    <col min="13572" max="13572" width="48.41796875" style="1" customWidth="1"/>
-    <col min="13573" max="13573" width="22.15625" style="1" customWidth="1"/>
-    <col min="13574" max="13574" width="30.83984375" style="1" customWidth="1"/>
+    <col min="13570" max="13571" width="9.140625" style="1"/>
+    <col min="13572" max="13572" width="48.42578125" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="22.140625" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="30.85546875" style="1" customWidth="1"/>
     <col min="13575" max="13575" width="34" style="1" customWidth="1"/>
-    <col min="13576" max="13576" width="10.26171875" style="1" customWidth="1"/>
+    <col min="13576" max="13576" width="10.28515625" style="1" customWidth="1"/>
     <col min="13577" max="13577" width="11" style="1" customWidth="1"/>
-    <col min="13578" max="13824" width="9.15625" style="1"/>
+    <col min="13578" max="13824" width="9.140625" style="1"/>
     <col min="13825" max="13825" width="17" style="1" customWidth="1"/>
-    <col min="13826" max="13827" width="9.15625" style="1"/>
-    <col min="13828" max="13828" width="48.41796875" style="1" customWidth="1"/>
-    <col min="13829" max="13829" width="22.15625" style="1" customWidth="1"/>
-    <col min="13830" max="13830" width="30.83984375" style="1" customWidth="1"/>
+    <col min="13826" max="13827" width="9.140625" style="1"/>
+    <col min="13828" max="13828" width="48.42578125" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="22.140625" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="30.85546875" style="1" customWidth="1"/>
     <col min="13831" max="13831" width="34" style="1" customWidth="1"/>
-    <col min="13832" max="13832" width="10.26171875" style="1" customWidth="1"/>
+    <col min="13832" max="13832" width="10.28515625" style="1" customWidth="1"/>
     <col min="13833" max="13833" width="11" style="1" customWidth="1"/>
-    <col min="13834" max="14080" width="9.15625" style="1"/>
+    <col min="13834" max="14080" width="9.140625" style="1"/>
     <col min="14081" max="14081" width="17" style="1" customWidth="1"/>
-    <col min="14082" max="14083" width="9.15625" style="1"/>
-    <col min="14084" max="14084" width="48.41796875" style="1" customWidth="1"/>
-    <col min="14085" max="14085" width="22.15625" style="1" customWidth="1"/>
-    <col min="14086" max="14086" width="30.83984375" style="1" customWidth="1"/>
+    <col min="14082" max="14083" width="9.140625" style="1"/>
+    <col min="14084" max="14084" width="48.42578125" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="22.140625" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="30.85546875" style="1" customWidth="1"/>
     <col min="14087" max="14087" width="34" style="1" customWidth="1"/>
-    <col min="14088" max="14088" width="10.26171875" style="1" customWidth="1"/>
+    <col min="14088" max="14088" width="10.28515625" style="1" customWidth="1"/>
     <col min="14089" max="14089" width="11" style="1" customWidth="1"/>
-    <col min="14090" max="14336" width="9.15625" style="1"/>
+    <col min="14090" max="14336" width="9.140625" style="1"/>
     <col min="14337" max="14337" width="17" style="1" customWidth="1"/>
-    <col min="14338" max="14339" width="9.15625" style="1"/>
-    <col min="14340" max="14340" width="48.41796875" style="1" customWidth="1"/>
-    <col min="14341" max="14341" width="22.15625" style="1" customWidth="1"/>
-    <col min="14342" max="14342" width="30.83984375" style="1" customWidth="1"/>
+    <col min="14338" max="14339" width="9.140625" style="1"/>
+    <col min="14340" max="14340" width="48.42578125" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="22.140625" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="30.85546875" style="1" customWidth="1"/>
     <col min="14343" max="14343" width="34" style="1" customWidth="1"/>
-    <col min="14344" max="14344" width="10.26171875" style="1" customWidth="1"/>
+    <col min="14344" max="14344" width="10.28515625" style="1" customWidth="1"/>
     <col min="14345" max="14345" width="11" style="1" customWidth="1"/>
-    <col min="14346" max="14592" width="9.15625" style="1"/>
+    <col min="14346" max="14592" width="9.140625" style="1"/>
     <col min="14593" max="14593" width="17" style="1" customWidth="1"/>
-    <col min="14594" max="14595" width="9.15625" style="1"/>
-    <col min="14596" max="14596" width="48.41796875" style="1" customWidth="1"/>
-    <col min="14597" max="14597" width="22.15625" style="1" customWidth="1"/>
-    <col min="14598" max="14598" width="30.83984375" style="1" customWidth="1"/>
+    <col min="14594" max="14595" width="9.140625" style="1"/>
+    <col min="14596" max="14596" width="48.42578125" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="22.140625" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="30.85546875" style="1" customWidth="1"/>
     <col min="14599" max="14599" width="34" style="1" customWidth="1"/>
-    <col min="14600" max="14600" width="10.26171875" style="1" customWidth="1"/>
+    <col min="14600" max="14600" width="10.28515625" style="1" customWidth="1"/>
     <col min="14601" max="14601" width="11" style="1" customWidth="1"/>
-    <col min="14602" max="14848" width="9.15625" style="1"/>
+    <col min="14602" max="14848" width="9.140625" style="1"/>
     <col min="14849" max="14849" width="17" style="1" customWidth="1"/>
-    <col min="14850" max="14851" width="9.15625" style="1"/>
-    <col min="14852" max="14852" width="48.41796875" style="1" customWidth="1"/>
-    <col min="14853" max="14853" width="22.15625" style="1" customWidth="1"/>
-    <col min="14854" max="14854" width="30.83984375" style="1" customWidth="1"/>
+    <col min="14850" max="14851" width="9.140625" style="1"/>
+    <col min="14852" max="14852" width="48.42578125" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="22.140625" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="30.85546875" style="1" customWidth="1"/>
     <col min="14855" max="14855" width="34" style="1" customWidth="1"/>
-    <col min="14856" max="14856" width="10.26171875" style="1" customWidth="1"/>
+    <col min="14856" max="14856" width="10.28515625" style="1" customWidth="1"/>
     <col min="14857" max="14857" width="11" style="1" customWidth="1"/>
-    <col min="14858" max="15104" width="9.15625" style="1"/>
+    <col min="14858" max="15104" width="9.140625" style="1"/>
     <col min="15105" max="15105" width="17" style="1" customWidth="1"/>
-    <col min="15106" max="15107" width="9.15625" style="1"/>
-    <col min="15108" max="15108" width="48.41796875" style="1" customWidth="1"/>
-    <col min="15109" max="15109" width="22.15625" style="1" customWidth="1"/>
-    <col min="15110" max="15110" width="30.83984375" style="1" customWidth="1"/>
+    <col min="15106" max="15107" width="9.140625" style="1"/>
+    <col min="15108" max="15108" width="48.42578125" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="22.140625" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="30.85546875" style="1" customWidth="1"/>
     <col min="15111" max="15111" width="34" style="1" customWidth="1"/>
-    <col min="15112" max="15112" width="10.26171875" style="1" customWidth="1"/>
+    <col min="15112" max="15112" width="10.28515625" style="1" customWidth="1"/>
     <col min="15113" max="15113" width="11" style="1" customWidth="1"/>
-    <col min="15114" max="15360" width="9.15625" style="1"/>
+    <col min="15114" max="15360" width="9.140625" style="1"/>
     <col min="15361" max="15361" width="17" style="1" customWidth="1"/>
-    <col min="15362" max="15363" width="9.15625" style="1"/>
-    <col min="15364" max="15364" width="48.41796875" style="1" customWidth="1"/>
-    <col min="15365" max="15365" width="22.15625" style="1" customWidth="1"/>
-    <col min="15366" max="15366" width="30.83984375" style="1" customWidth="1"/>
+    <col min="15362" max="15363" width="9.140625" style="1"/>
+    <col min="15364" max="15364" width="48.42578125" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="22.140625" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="30.85546875" style="1" customWidth="1"/>
     <col min="15367" max="15367" width="34" style="1" customWidth="1"/>
-    <col min="15368" max="15368" width="10.26171875" style="1" customWidth="1"/>
+    <col min="15368" max="15368" width="10.28515625" style="1" customWidth="1"/>
     <col min="15369" max="15369" width="11" style="1" customWidth="1"/>
-    <col min="15370" max="15616" width="9.15625" style="1"/>
+    <col min="15370" max="15616" width="9.140625" style="1"/>
     <col min="15617" max="15617" width="17" style="1" customWidth="1"/>
-    <col min="15618" max="15619" width="9.15625" style="1"/>
-    <col min="15620" max="15620" width="48.41796875" style="1" customWidth="1"/>
-    <col min="15621" max="15621" width="22.15625" style="1" customWidth="1"/>
-    <col min="15622" max="15622" width="30.83984375" style="1" customWidth="1"/>
+    <col min="15618" max="15619" width="9.140625" style="1"/>
+    <col min="15620" max="15620" width="48.42578125" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="22.140625" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="30.85546875" style="1" customWidth="1"/>
     <col min="15623" max="15623" width="34" style="1" customWidth="1"/>
-    <col min="15624" max="15624" width="10.26171875" style="1" customWidth="1"/>
+    <col min="15624" max="15624" width="10.28515625" style="1" customWidth="1"/>
     <col min="15625" max="15625" width="11" style="1" customWidth="1"/>
-    <col min="15626" max="15872" width="9.15625" style="1"/>
+    <col min="15626" max="15872" width="9.140625" style="1"/>
     <col min="15873" max="15873" width="17" style="1" customWidth="1"/>
-    <col min="15874" max="15875" width="9.15625" style="1"/>
-    <col min="15876" max="15876" width="48.41796875" style="1" customWidth="1"/>
-    <col min="15877" max="15877" width="22.15625" style="1" customWidth="1"/>
-    <col min="15878" max="15878" width="30.83984375" style="1" customWidth="1"/>
+    <col min="15874" max="15875" width="9.140625" style="1"/>
+    <col min="15876" max="15876" width="48.42578125" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="22.140625" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="30.85546875" style="1" customWidth="1"/>
     <col min="15879" max="15879" width="34" style="1" customWidth="1"/>
-    <col min="15880" max="15880" width="10.26171875" style="1" customWidth="1"/>
+    <col min="15880" max="15880" width="10.28515625" style="1" customWidth="1"/>
     <col min="15881" max="15881" width="11" style="1" customWidth="1"/>
-    <col min="15882" max="16128" width="9.15625" style="1"/>
+    <col min="15882" max="16128" width="9.140625" style="1"/>
     <col min="16129" max="16129" width="17" style="1" customWidth="1"/>
-    <col min="16130" max="16131" width="9.15625" style="1"/>
-    <col min="16132" max="16132" width="48.41796875" style="1" customWidth="1"/>
-    <col min="16133" max="16133" width="22.15625" style="1" customWidth="1"/>
-    <col min="16134" max="16134" width="30.83984375" style="1" customWidth="1"/>
+    <col min="16130" max="16131" width="9.140625" style="1"/>
+    <col min="16132" max="16132" width="48.42578125" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="22.140625" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="30.85546875" style="1" customWidth="1"/>
     <col min="16135" max="16135" width="34" style="1" customWidth="1"/>
-    <col min="16136" max="16136" width="10.26171875" style="1" customWidth="1"/>
+    <col min="16136" max="16136" width="10.28515625" style="1" customWidth="1"/>
     <col min="16137" max="16137" width="11" style="1" customWidth="1"/>
-    <col min="16138" max="16384" width="9.15625" style="1"/>
+    <col min="16138" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="41" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="41" t="s">
+      <c r="E6" s="62"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="41"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="19" t="s">
+      <c r="H6" s="62"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="53"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-    </row>
-    <row r="12" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="31" t="s">
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+    </row>
+    <row r="12" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="54"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="54"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -2068,249 +2207,249 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="37" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="25"/>
-      <c r="B17" s="29" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="93"/>
+    </row>
+    <row r="17" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="25"/>
-      <c r="B18" s="29" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="93"/>
+    </row>
+    <row r="18" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="25"/>
-      <c r="B19" s="29" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="93"/>
+    </row>
+    <row r="19" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="25"/>
-      <c r="B20" s="29" t="s">
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="93"/>
+    </row>
+    <row r="20" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="25"/>
-      <c r="B21" s="29" t="s">
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="93"/>
+    </row>
+    <row r="21" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="N21" s="57"/>
-    </row>
-    <row r="22" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="25"/>
-      <c r="B22" s="21" t="s">
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="93"/>
+      <c r="N21" s="20"/>
+    </row>
+    <row r="22" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="60"/>
-    </row>
-    <row r="23" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="25"/>
-      <c r="B23" s="21" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="93"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="23"/>
+    </row>
+    <row r="23" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="26"/>
-      <c r="B24" s="23" t="s">
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="93"/>
+    </row>
+    <row r="24" spans="1:16" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41"/>
+      <c r="B24" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="25" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="96"/>
+    </row>
+    <row r="25" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="25"/>
-      <c r="B26" s="29" t="s">
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="99"/>
+    </row>
+    <row r="26" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="25"/>
-      <c r="B27" s="29" t="s">
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="93"/>
+    </row>
+    <row r="27" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="25"/>
-      <c r="B28" s="29" t="s">
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="93"/>
+    </row>
+    <row r="28" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="25"/>
-      <c r="B29" s="29" t="s">
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="93"/>
+    </row>
+    <row r="29" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="25"/>
-      <c r="B30" s="21" t="s">
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="93"/>
+    </row>
+    <row r="30" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="25"/>
-      <c r="B31" s="21" t="s">
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="93"/>
+    </row>
+    <row r="31" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:16" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="26"/>
-      <c r="B32" s="23" t="s">
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="93"/>
+    </row>
+    <row r="32" spans="1:16" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="41"/>
+      <c r="B32" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="96"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -2319,20 +2458,20 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="63" t="s">
+    <row r="34" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-    </row>
-    <row r="35" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+    </row>
+    <row r="35" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>34</v>
       </c>
@@ -2362,7 +2501,7 @@
       </c>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:10" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>16</v>
       </c>
@@ -2373,10 +2512,10 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="65"/>
+      <c r="I36" s="24"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:10" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>26</v>
       </c>
@@ -2387,26 +2526,61 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
-      <c r="I37" s="65"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="51">
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -2418,28 +2592,11 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
@@ -2447,464 +2604,464 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283A85A2-ECC7-4E1A-ACDC-5E6E99E0CCFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="10.578125" style="12" customWidth="1"/>
-    <col min="18" max="257" width="9.15625" style="12"/>
+    <col min="1" max="17" width="10.5703125" style="12" customWidth="1"/>
+    <col min="18" max="257" width="9.140625" style="12"/>
     <col min="258" max="258" width="16" style="12" customWidth="1"/>
-    <col min="259" max="263" width="9.15625" style="12"/>
-    <col min="264" max="264" width="11.68359375" style="12" customWidth="1"/>
-    <col min="265" max="265" width="11.83984375" style="12" customWidth="1"/>
-    <col min="266" max="268" width="9.15625" style="12"/>
-    <col min="269" max="269" width="10.68359375" style="12" customWidth="1"/>
-    <col min="270" max="513" width="9.15625" style="12"/>
+    <col min="259" max="263" width="9.140625" style="12"/>
+    <col min="264" max="264" width="11.7109375" style="12" customWidth="1"/>
+    <col min="265" max="265" width="11.85546875" style="12" customWidth="1"/>
+    <col min="266" max="268" width="9.140625" style="12"/>
+    <col min="269" max="269" width="10.7109375" style="12" customWidth="1"/>
+    <col min="270" max="513" width="9.140625" style="12"/>
     <col min="514" max="514" width="16" style="12" customWidth="1"/>
-    <col min="515" max="519" width="9.15625" style="12"/>
-    <col min="520" max="520" width="11.68359375" style="12" customWidth="1"/>
-    <col min="521" max="521" width="11.83984375" style="12" customWidth="1"/>
-    <col min="522" max="524" width="9.15625" style="12"/>
-    <col min="525" max="525" width="10.68359375" style="12" customWidth="1"/>
-    <col min="526" max="769" width="9.15625" style="12"/>
+    <col min="515" max="519" width="9.140625" style="12"/>
+    <col min="520" max="520" width="11.7109375" style="12" customWidth="1"/>
+    <col min="521" max="521" width="11.85546875" style="12" customWidth="1"/>
+    <col min="522" max="524" width="9.140625" style="12"/>
+    <col min="525" max="525" width="10.7109375" style="12" customWidth="1"/>
+    <col min="526" max="769" width="9.140625" style="12"/>
     <col min="770" max="770" width="16" style="12" customWidth="1"/>
-    <col min="771" max="775" width="9.15625" style="12"/>
-    <col min="776" max="776" width="11.68359375" style="12" customWidth="1"/>
-    <col min="777" max="777" width="11.83984375" style="12" customWidth="1"/>
-    <col min="778" max="780" width="9.15625" style="12"/>
-    <col min="781" max="781" width="10.68359375" style="12" customWidth="1"/>
-    <col min="782" max="1025" width="9.15625" style="12"/>
+    <col min="771" max="775" width="9.140625" style="12"/>
+    <col min="776" max="776" width="11.7109375" style="12" customWidth="1"/>
+    <col min="777" max="777" width="11.85546875" style="12" customWidth="1"/>
+    <col min="778" max="780" width="9.140625" style="12"/>
+    <col min="781" max="781" width="10.7109375" style="12" customWidth="1"/>
+    <col min="782" max="1025" width="9.140625" style="12"/>
     <col min="1026" max="1026" width="16" style="12" customWidth="1"/>
-    <col min="1027" max="1031" width="9.15625" style="12"/>
-    <col min="1032" max="1032" width="11.68359375" style="12" customWidth="1"/>
-    <col min="1033" max="1033" width="11.83984375" style="12" customWidth="1"/>
-    <col min="1034" max="1036" width="9.15625" style="12"/>
-    <col min="1037" max="1037" width="10.68359375" style="12" customWidth="1"/>
-    <col min="1038" max="1281" width="9.15625" style="12"/>
+    <col min="1027" max="1031" width="9.140625" style="12"/>
+    <col min="1032" max="1032" width="11.7109375" style="12" customWidth="1"/>
+    <col min="1033" max="1033" width="11.85546875" style="12" customWidth="1"/>
+    <col min="1034" max="1036" width="9.140625" style="12"/>
+    <col min="1037" max="1037" width="10.7109375" style="12" customWidth="1"/>
+    <col min="1038" max="1281" width="9.140625" style="12"/>
     <col min="1282" max="1282" width="16" style="12" customWidth="1"/>
-    <col min="1283" max="1287" width="9.15625" style="12"/>
-    <col min="1288" max="1288" width="11.68359375" style="12" customWidth="1"/>
-    <col min="1289" max="1289" width="11.83984375" style="12" customWidth="1"/>
-    <col min="1290" max="1292" width="9.15625" style="12"/>
-    <col min="1293" max="1293" width="10.68359375" style="12" customWidth="1"/>
-    <col min="1294" max="1537" width="9.15625" style="12"/>
+    <col min="1283" max="1287" width="9.140625" style="12"/>
+    <col min="1288" max="1288" width="11.7109375" style="12" customWidth="1"/>
+    <col min="1289" max="1289" width="11.85546875" style="12" customWidth="1"/>
+    <col min="1290" max="1292" width="9.140625" style="12"/>
+    <col min="1293" max="1293" width="10.7109375" style="12" customWidth="1"/>
+    <col min="1294" max="1537" width="9.140625" style="12"/>
     <col min="1538" max="1538" width="16" style="12" customWidth="1"/>
-    <col min="1539" max="1543" width="9.15625" style="12"/>
-    <col min="1544" max="1544" width="11.68359375" style="12" customWidth="1"/>
-    <col min="1545" max="1545" width="11.83984375" style="12" customWidth="1"/>
-    <col min="1546" max="1548" width="9.15625" style="12"/>
-    <col min="1549" max="1549" width="10.68359375" style="12" customWidth="1"/>
-    <col min="1550" max="1793" width="9.15625" style="12"/>
+    <col min="1539" max="1543" width="9.140625" style="12"/>
+    <col min="1544" max="1544" width="11.7109375" style="12" customWidth="1"/>
+    <col min="1545" max="1545" width="11.85546875" style="12" customWidth="1"/>
+    <col min="1546" max="1548" width="9.140625" style="12"/>
+    <col min="1549" max="1549" width="10.7109375" style="12" customWidth="1"/>
+    <col min="1550" max="1793" width="9.140625" style="12"/>
     <col min="1794" max="1794" width="16" style="12" customWidth="1"/>
-    <col min="1795" max="1799" width="9.15625" style="12"/>
-    <col min="1800" max="1800" width="11.68359375" style="12" customWidth="1"/>
-    <col min="1801" max="1801" width="11.83984375" style="12" customWidth="1"/>
-    <col min="1802" max="1804" width="9.15625" style="12"/>
-    <col min="1805" max="1805" width="10.68359375" style="12" customWidth="1"/>
-    <col min="1806" max="2049" width="9.15625" style="12"/>
+    <col min="1795" max="1799" width="9.140625" style="12"/>
+    <col min="1800" max="1800" width="11.7109375" style="12" customWidth="1"/>
+    <col min="1801" max="1801" width="11.85546875" style="12" customWidth="1"/>
+    <col min="1802" max="1804" width="9.140625" style="12"/>
+    <col min="1805" max="1805" width="10.7109375" style="12" customWidth="1"/>
+    <col min="1806" max="2049" width="9.140625" style="12"/>
     <col min="2050" max="2050" width="16" style="12" customWidth="1"/>
-    <col min="2051" max="2055" width="9.15625" style="12"/>
-    <col min="2056" max="2056" width="11.68359375" style="12" customWidth="1"/>
-    <col min="2057" max="2057" width="11.83984375" style="12" customWidth="1"/>
-    <col min="2058" max="2060" width="9.15625" style="12"/>
-    <col min="2061" max="2061" width="10.68359375" style="12" customWidth="1"/>
-    <col min="2062" max="2305" width="9.15625" style="12"/>
+    <col min="2051" max="2055" width="9.140625" style="12"/>
+    <col min="2056" max="2056" width="11.7109375" style="12" customWidth="1"/>
+    <col min="2057" max="2057" width="11.85546875" style="12" customWidth="1"/>
+    <col min="2058" max="2060" width="9.140625" style="12"/>
+    <col min="2061" max="2061" width="10.7109375" style="12" customWidth="1"/>
+    <col min="2062" max="2305" width="9.140625" style="12"/>
     <col min="2306" max="2306" width="16" style="12" customWidth="1"/>
-    <col min="2307" max="2311" width="9.15625" style="12"/>
-    <col min="2312" max="2312" width="11.68359375" style="12" customWidth="1"/>
-    <col min="2313" max="2313" width="11.83984375" style="12" customWidth="1"/>
-    <col min="2314" max="2316" width="9.15625" style="12"/>
-    <col min="2317" max="2317" width="10.68359375" style="12" customWidth="1"/>
-    <col min="2318" max="2561" width="9.15625" style="12"/>
+    <col min="2307" max="2311" width="9.140625" style="12"/>
+    <col min="2312" max="2312" width="11.7109375" style="12" customWidth="1"/>
+    <col min="2313" max="2313" width="11.85546875" style="12" customWidth="1"/>
+    <col min="2314" max="2316" width="9.140625" style="12"/>
+    <col min="2317" max="2317" width="10.7109375" style="12" customWidth="1"/>
+    <col min="2318" max="2561" width="9.140625" style="12"/>
     <col min="2562" max="2562" width="16" style="12" customWidth="1"/>
-    <col min="2563" max="2567" width="9.15625" style="12"/>
-    <col min="2568" max="2568" width="11.68359375" style="12" customWidth="1"/>
-    <col min="2569" max="2569" width="11.83984375" style="12" customWidth="1"/>
-    <col min="2570" max="2572" width="9.15625" style="12"/>
-    <col min="2573" max="2573" width="10.68359375" style="12" customWidth="1"/>
-    <col min="2574" max="2817" width="9.15625" style="12"/>
+    <col min="2563" max="2567" width="9.140625" style="12"/>
+    <col min="2568" max="2568" width="11.7109375" style="12" customWidth="1"/>
+    <col min="2569" max="2569" width="11.85546875" style="12" customWidth="1"/>
+    <col min="2570" max="2572" width="9.140625" style="12"/>
+    <col min="2573" max="2573" width="10.7109375" style="12" customWidth="1"/>
+    <col min="2574" max="2817" width="9.140625" style="12"/>
     <col min="2818" max="2818" width="16" style="12" customWidth="1"/>
-    <col min="2819" max="2823" width="9.15625" style="12"/>
-    <col min="2824" max="2824" width="11.68359375" style="12" customWidth="1"/>
-    <col min="2825" max="2825" width="11.83984375" style="12" customWidth="1"/>
-    <col min="2826" max="2828" width="9.15625" style="12"/>
-    <col min="2829" max="2829" width="10.68359375" style="12" customWidth="1"/>
-    <col min="2830" max="3073" width="9.15625" style="12"/>
+    <col min="2819" max="2823" width="9.140625" style="12"/>
+    <col min="2824" max="2824" width="11.7109375" style="12" customWidth="1"/>
+    <col min="2825" max="2825" width="11.85546875" style="12" customWidth="1"/>
+    <col min="2826" max="2828" width="9.140625" style="12"/>
+    <col min="2829" max="2829" width="10.7109375" style="12" customWidth="1"/>
+    <col min="2830" max="3073" width="9.140625" style="12"/>
     <col min="3074" max="3074" width="16" style="12" customWidth="1"/>
-    <col min="3075" max="3079" width="9.15625" style="12"/>
-    <col min="3080" max="3080" width="11.68359375" style="12" customWidth="1"/>
-    <col min="3081" max="3081" width="11.83984375" style="12" customWidth="1"/>
-    <col min="3082" max="3084" width="9.15625" style="12"/>
-    <col min="3085" max="3085" width="10.68359375" style="12" customWidth="1"/>
-    <col min="3086" max="3329" width="9.15625" style="12"/>
+    <col min="3075" max="3079" width="9.140625" style="12"/>
+    <col min="3080" max="3080" width="11.7109375" style="12" customWidth="1"/>
+    <col min="3081" max="3081" width="11.85546875" style="12" customWidth="1"/>
+    <col min="3082" max="3084" width="9.140625" style="12"/>
+    <col min="3085" max="3085" width="10.7109375" style="12" customWidth="1"/>
+    <col min="3086" max="3329" width="9.140625" style="12"/>
     <col min="3330" max="3330" width="16" style="12" customWidth="1"/>
-    <col min="3331" max="3335" width="9.15625" style="12"/>
-    <col min="3336" max="3336" width="11.68359375" style="12" customWidth="1"/>
-    <col min="3337" max="3337" width="11.83984375" style="12" customWidth="1"/>
-    <col min="3338" max="3340" width="9.15625" style="12"/>
-    <col min="3341" max="3341" width="10.68359375" style="12" customWidth="1"/>
-    <col min="3342" max="3585" width="9.15625" style="12"/>
+    <col min="3331" max="3335" width="9.140625" style="12"/>
+    <col min="3336" max="3336" width="11.7109375" style="12" customWidth="1"/>
+    <col min="3337" max="3337" width="11.85546875" style="12" customWidth="1"/>
+    <col min="3338" max="3340" width="9.140625" style="12"/>
+    <col min="3341" max="3341" width="10.7109375" style="12" customWidth="1"/>
+    <col min="3342" max="3585" width="9.140625" style="12"/>
     <col min="3586" max="3586" width="16" style="12" customWidth="1"/>
-    <col min="3587" max="3591" width="9.15625" style="12"/>
-    <col min="3592" max="3592" width="11.68359375" style="12" customWidth="1"/>
-    <col min="3593" max="3593" width="11.83984375" style="12" customWidth="1"/>
-    <col min="3594" max="3596" width="9.15625" style="12"/>
-    <col min="3597" max="3597" width="10.68359375" style="12" customWidth="1"/>
-    <col min="3598" max="3841" width="9.15625" style="12"/>
+    <col min="3587" max="3591" width="9.140625" style="12"/>
+    <col min="3592" max="3592" width="11.7109375" style="12" customWidth="1"/>
+    <col min="3593" max="3593" width="11.85546875" style="12" customWidth="1"/>
+    <col min="3594" max="3596" width="9.140625" style="12"/>
+    <col min="3597" max="3597" width="10.7109375" style="12" customWidth="1"/>
+    <col min="3598" max="3841" width="9.140625" style="12"/>
     <col min="3842" max="3842" width="16" style="12" customWidth="1"/>
-    <col min="3843" max="3847" width="9.15625" style="12"/>
-    <col min="3848" max="3848" width="11.68359375" style="12" customWidth="1"/>
-    <col min="3849" max="3849" width="11.83984375" style="12" customWidth="1"/>
-    <col min="3850" max="3852" width="9.15625" style="12"/>
-    <col min="3853" max="3853" width="10.68359375" style="12" customWidth="1"/>
-    <col min="3854" max="4097" width="9.15625" style="12"/>
+    <col min="3843" max="3847" width="9.140625" style="12"/>
+    <col min="3848" max="3848" width="11.7109375" style="12" customWidth="1"/>
+    <col min="3849" max="3849" width="11.85546875" style="12" customWidth="1"/>
+    <col min="3850" max="3852" width="9.140625" style="12"/>
+    <col min="3853" max="3853" width="10.7109375" style="12" customWidth="1"/>
+    <col min="3854" max="4097" width="9.140625" style="12"/>
     <col min="4098" max="4098" width="16" style="12" customWidth="1"/>
-    <col min="4099" max="4103" width="9.15625" style="12"/>
-    <col min="4104" max="4104" width="11.68359375" style="12" customWidth="1"/>
-    <col min="4105" max="4105" width="11.83984375" style="12" customWidth="1"/>
-    <col min="4106" max="4108" width="9.15625" style="12"/>
-    <col min="4109" max="4109" width="10.68359375" style="12" customWidth="1"/>
-    <col min="4110" max="4353" width="9.15625" style="12"/>
+    <col min="4099" max="4103" width="9.140625" style="12"/>
+    <col min="4104" max="4104" width="11.7109375" style="12" customWidth="1"/>
+    <col min="4105" max="4105" width="11.85546875" style="12" customWidth="1"/>
+    <col min="4106" max="4108" width="9.140625" style="12"/>
+    <col min="4109" max="4109" width="10.7109375" style="12" customWidth="1"/>
+    <col min="4110" max="4353" width="9.140625" style="12"/>
     <col min="4354" max="4354" width="16" style="12" customWidth="1"/>
-    <col min="4355" max="4359" width="9.15625" style="12"/>
-    <col min="4360" max="4360" width="11.68359375" style="12" customWidth="1"/>
-    <col min="4361" max="4361" width="11.83984375" style="12" customWidth="1"/>
-    <col min="4362" max="4364" width="9.15625" style="12"/>
-    <col min="4365" max="4365" width="10.68359375" style="12" customWidth="1"/>
-    <col min="4366" max="4609" width="9.15625" style="12"/>
+    <col min="4355" max="4359" width="9.140625" style="12"/>
+    <col min="4360" max="4360" width="11.7109375" style="12" customWidth="1"/>
+    <col min="4361" max="4361" width="11.85546875" style="12" customWidth="1"/>
+    <col min="4362" max="4364" width="9.140625" style="12"/>
+    <col min="4365" max="4365" width="10.7109375" style="12" customWidth="1"/>
+    <col min="4366" max="4609" width="9.140625" style="12"/>
     <col min="4610" max="4610" width="16" style="12" customWidth="1"/>
-    <col min="4611" max="4615" width="9.15625" style="12"/>
-    <col min="4616" max="4616" width="11.68359375" style="12" customWidth="1"/>
-    <col min="4617" max="4617" width="11.83984375" style="12" customWidth="1"/>
-    <col min="4618" max="4620" width="9.15625" style="12"/>
-    <col min="4621" max="4621" width="10.68359375" style="12" customWidth="1"/>
-    <col min="4622" max="4865" width="9.15625" style="12"/>
+    <col min="4611" max="4615" width="9.140625" style="12"/>
+    <col min="4616" max="4616" width="11.7109375" style="12" customWidth="1"/>
+    <col min="4617" max="4617" width="11.85546875" style="12" customWidth="1"/>
+    <col min="4618" max="4620" width="9.140625" style="12"/>
+    <col min="4621" max="4621" width="10.7109375" style="12" customWidth="1"/>
+    <col min="4622" max="4865" width="9.140625" style="12"/>
     <col min="4866" max="4866" width="16" style="12" customWidth="1"/>
-    <col min="4867" max="4871" width="9.15625" style="12"/>
-    <col min="4872" max="4872" width="11.68359375" style="12" customWidth="1"/>
-    <col min="4873" max="4873" width="11.83984375" style="12" customWidth="1"/>
-    <col min="4874" max="4876" width="9.15625" style="12"/>
-    <col min="4877" max="4877" width="10.68359375" style="12" customWidth="1"/>
-    <col min="4878" max="5121" width="9.15625" style="12"/>
+    <col min="4867" max="4871" width="9.140625" style="12"/>
+    <col min="4872" max="4872" width="11.7109375" style="12" customWidth="1"/>
+    <col min="4873" max="4873" width="11.85546875" style="12" customWidth="1"/>
+    <col min="4874" max="4876" width="9.140625" style="12"/>
+    <col min="4877" max="4877" width="10.7109375" style="12" customWidth="1"/>
+    <col min="4878" max="5121" width="9.140625" style="12"/>
     <col min="5122" max="5122" width="16" style="12" customWidth="1"/>
-    <col min="5123" max="5127" width="9.15625" style="12"/>
-    <col min="5128" max="5128" width="11.68359375" style="12" customWidth="1"/>
-    <col min="5129" max="5129" width="11.83984375" style="12" customWidth="1"/>
-    <col min="5130" max="5132" width="9.15625" style="12"/>
-    <col min="5133" max="5133" width="10.68359375" style="12" customWidth="1"/>
-    <col min="5134" max="5377" width="9.15625" style="12"/>
+    <col min="5123" max="5127" width="9.140625" style="12"/>
+    <col min="5128" max="5128" width="11.7109375" style="12" customWidth="1"/>
+    <col min="5129" max="5129" width="11.85546875" style="12" customWidth="1"/>
+    <col min="5130" max="5132" width="9.140625" style="12"/>
+    <col min="5133" max="5133" width="10.7109375" style="12" customWidth="1"/>
+    <col min="5134" max="5377" width="9.140625" style="12"/>
     <col min="5378" max="5378" width="16" style="12" customWidth="1"/>
-    <col min="5379" max="5383" width="9.15625" style="12"/>
-    <col min="5384" max="5384" width="11.68359375" style="12" customWidth="1"/>
-    <col min="5385" max="5385" width="11.83984375" style="12" customWidth="1"/>
-    <col min="5386" max="5388" width="9.15625" style="12"/>
-    <col min="5389" max="5389" width="10.68359375" style="12" customWidth="1"/>
-    <col min="5390" max="5633" width="9.15625" style="12"/>
+    <col min="5379" max="5383" width="9.140625" style="12"/>
+    <col min="5384" max="5384" width="11.7109375" style="12" customWidth="1"/>
+    <col min="5385" max="5385" width="11.85546875" style="12" customWidth="1"/>
+    <col min="5386" max="5388" width="9.140625" style="12"/>
+    <col min="5389" max="5389" width="10.7109375" style="12" customWidth="1"/>
+    <col min="5390" max="5633" width="9.140625" style="12"/>
     <col min="5634" max="5634" width="16" style="12" customWidth="1"/>
-    <col min="5635" max="5639" width="9.15625" style="12"/>
-    <col min="5640" max="5640" width="11.68359375" style="12" customWidth="1"/>
-    <col min="5641" max="5641" width="11.83984375" style="12" customWidth="1"/>
-    <col min="5642" max="5644" width="9.15625" style="12"/>
-    <col min="5645" max="5645" width="10.68359375" style="12" customWidth="1"/>
-    <col min="5646" max="5889" width="9.15625" style="12"/>
+    <col min="5635" max="5639" width="9.140625" style="12"/>
+    <col min="5640" max="5640" width="11.7109375" style="12" customWidth="1"/>
+    <col min="5641" max="5641" width="11.85546875" style="12" customWidth="1"/>
+    <col min="5642" max="5644" width="9.140625" style="12"/>
+    <col min="5645" max="5645" width="10.7109375" style="12" customWidth="1"/>
+    <col min="5646" max="5889" width="9.140625" style="12"/>
     <col min="5890" max="5890" width="16" style="12" customWidth="1"/>
-    <col min="5891" max="5895" width="9.15625" style="12"/>
-    <col min="5896" max="5896" width="11.68359375" style="12" customWidth="1"/>
-    <col min="5897" max="5897" width="11.83984375" style="12" customWidth="1"/>
-    <col min="5898" max="5900" width="9.15625" style="12"/>
-    <col min="5901" max="5901" width="10.68359375" style="12" customWidth="1"/>
-    <col min="5902" max="6145" width="9.15625" style="12"/>
+    <col min="5891" max="5895" width="9.140625" style="12"/>
+    <col min="5896" max="5896" width="11.7109375" style="12" customWidth="1"/>
+    <col min="5897" max="5897" width="11.85546875" style="12" customWidth="1"/>
+    <col min="5898" max="5900" width="9.140625" style="12"/>
+    <col min="5901" max="5901" width="10.7109375" style="12" customWidth="1"/>
+    <col min="5902" max="6145" width="9.140625" style="12"/>
     <col min="6146" max="6146" width="16" style="12" customWidth="1"/>
-    <col min="6147" max="6151" width="9.15625" style="12"/>
-    <col min="6152" max="6152" width="11.68359375" style="12" customWidth="1"/>
-    <col min="6153" max="6153" width="11.83984375" style="12" customWidth="1"/>
-    <col min="6154" max="6156" width="9.15625" style="12"/>
-    <col min="6157" max="6157" width="10.68359375" style="12" customWidth="1"/>
-    <col min="6158" max="6401" width="9.15625" style="12"/>
+    <col min="6147" max="6151" width="9.140625" style="12"/>
+    <col min="6152" max="6152" width="11.7109375" style="12" customWidth="1"/>
+    <col min="6153" max="6153" width="11.85546875" style="12" customWidth="1"/>
+    <col min="6154" max="6156" width="9.140625" style="12"/>
+    <col min="6157" max="6157" width="10.7109375" style="12" customWidth="1"/>
+    <col min="6158" max="6401" width="9.140625" style="12"/>
     <col min="6402" max="6402" width="16" style="12" customWidth="1"/>
-    <col min="6403" max="6407" width="9.15625" style="12"/>
-    <col min="6408" max="6408" width="11.68359375" style="12" customWidth="1"/>
-    <col min="6409" max="6409" width="11.83984375" style="12" customWidth="1"/>
-    <col min="6410" max="6412" width="9.15625" style="12"/>
-    <col min="6413" max="6413" width="10.68359375" style="12" customWidth="1"/>
-    <col min="6414" max="6657" width="9.15625" style="12"/>
+    <col min="6403" max="6407" width="9.140625" style="12"/>
+    <col min="6408" max="6408" width="11.7109375" style="12" customWidth="1"/>
+    <col min="6409" max="6409" width="11.85546875" style="12" customWidth="1"/>
+    <col min="6410" max="6412" width="9.140625" style="12"/>
+    <col min="6413" max="6413" width="10.7109375" style="12" customWidth="1"/>
+    <col min="6414" max="6657" width="9.140625" style="12"/>
     <col min="6658" max="6658" width="16" style="12" customWidth="1"/>
-    <col min="6659" max="6663" width="9.15625" style="12"/>
-    <col min="6664" max="6664" width="11.68359375" style="12" customWidth="1"/>
-    <col min="6665" max="6665" width="11.83984375" style="12" customWidth="1"/>
-    <col min="6666" max="6668" width="9.15625" style="12"/>
-    <col min="6669" max="6669" width="10.68359375" style="12" customWidth="1"/>
-    <col min="6670" max="6913" width="9.15625" style="12"/>
+    <col min="6659" max="6663" width="9.140625" style="12"/>
+    <col min="6664" max="6664" width="11.7109375" style="12" customWidth="1"/>
+    <col min="6665" max="6665" width="11.85546875" style="12" customWidth="1"/>
+    <col min="6666" max="6668" width="9.140625" style="12"/>
+    <col min="6669" max="6669" width="10.7109375" style="12" customWidth="1"/>
+    <col min="6670" max="6913" width="9.140625" style="12"/>
     <col min="6914" max="6914" width="16" style="12" customWidth="1"/>
-    <col min="6915" max="6919" width="9.15625" style="12"/>
-    <col min="6920" max="6920" width="11.68359375" style="12" customWidth="1"/>
-    <col min="6921" max="6921" width="11.83984375" style="12" customWidth="1"/>
-    <col min="6922" max="6924" width="9.15625" style="12"/>
-    <col min="6925" max="6925" width="10.68359375" style="12" customWidth="1"/>
-    <col min="6926" max="7169" width="9.15625" style="12"/>
+    <col min="6915" max="6919" width="9.140625" style="12"/>
+    <col min="6920" max="6920" width="11.7109375" style="12" customWidth="1"/>
+    <col min="6921" max="6921" width="11.85546875" style="12" customWidth="1"/>
+    <col min="6922" max="6924" width="9.140625" style="12"/>
+    <col min="6925" max="6925" width="10.7109375" style="12" customWidth="1"/>
+    <col min="6926" max="7169" width="9.140625" style="12"/>
     <col min="7170" max="7170" width="16" style="12" customWidth="1"/>
-    <col min="7171" max="7175" width="9.15625" style="12"/>
-    <col min="7176" max="7176" width="11.68359375" style="12" customWidth="1"/>
-    <col min="7177" max="7177" width="11.83984375" style="12" customWidth="1"/>
-    <col min="7178" max="7180" width="9.15625" style="12"/>
-    <col min="7181" max="7181" width="10.68359375" style="12" customWidth="1"/>
-    <col min="7182" max="7425" width="9.15625" style="12"/>
+    <col min="7171" max="7175" width="9.140625" style="12"/>
+    <col min="7176" max="7176" width="11.7109375" style="12" customWidth="1"/>
+    <col min="7177" max="7177" width="11.85546875" style="12" customWidth="1"/>
+    <col min="7178" max="7180" width="9.140625" style="12"/>
+    <col min="7181" max="7181" width="10.7109375" style="12" customWidth="1"/>
+    <col min="7182" max="7425" width="9.140625" style="12"/>
     <col min="7426" max="7426" width="16" style="12" customWidth="1"/>
-    <col min="7427" max="7431" width="9.15625" style="12"/>
-    <col min="7432" max="7432" width="11.68359375" style="12" customWidth="1"/>
-    <col min="7433" max="7433" width="11.83984375" style="12" customWidth="1"/>
-    <col min="7434" max="7436" width="9.15625" style="12"/>
-    <col min="7437" max="7437" width="10.68359375" style="12" customWidth="1"/>
-    <col min="7438" max="7681" width="9.15625" style="12"/>
+    <col min="7427" max="7431" width="9.140625" style="12"/>
+    <col min="7432" max="7432" width="11.7109375" style="12" customWidth="1"/>
+    <col min="7433" max="7433" width="11.85546875" style="12" customWidth="1"/>
+    <col min="7434" max="7436" width="9.140625" style="12"/>
+    <col min="7437" max="7437" width="10.7109375" style="12" customWidth="1"/>
+    <col min="7438" max="7681" width="9.140625" style="12"/>
     <col min="7682" max="7682" width="16" style="12" customWidth="1"/>
-    <col min="7683" max="7687" width="9.15625" style="12"/>
-    <col min="7688" max="7688" width="11.68359375" style="12" customWidth="1"/>
-    <col min="7689" max="7689" width="11.83984375" style="12" customWidth="1"/>
-    <col min="7690" max="7692" width="9.15625" style="12"/>
-    <col min="7693" max="7693" width="10.68359375" style="12" customWidth="1"/>
-    <col min="7694" max="7937" width="9.15625" style="12"/>
+    <col min="7683" max="7687" width="9.140625" style="12"/>
+    <col min="7688" max="7688" width="11.7109375" style="12" customWidth="1"/>
+    <col min="7689" max="7689" width="11.85546875" style="12" customWidth="1"/>
+    <col min="7690" max="7692" width="9.140625" style="12"/>
+    <col min="7693" max="7693" width="10.7109375" style="12" customWidth="1"/>
+    <col min="7694" max="7937" width="9.140625" style="12"/>
     <col min="7938" max="7938" width="16" style="12" customWidth="1"/>
-    <col min="7939" max="7943" width="9.15625" style="12"/>
-    <col min="7944" max="7944" width="11.68359375" style="12" customWidth="1"/>
-    <col min="7945" max="7945" width="11.83984375" style="12" customWidth="1"/>
-    <col min="7946" max="7948" width="9.15625" style="12"/>
-    <col min="7949" max="7949" width="10.68359375" style="12" customWidth="1"/>
-    <col min="7950" max="8193" width="9.15625" style="12"/>
+    <col min="7939" max="7943" width="9.140625" style="12"/>
+    <col min="7944" max="7944" width="11.7109375" style="12" customWidth="1"/>
+    <col min="7945" max="7945" width="11.85546875" style="12" customWidth="1"/>
+    <col min="7946" max="7948" width="9.140625" style="12"/>
+    <col min="7949" max="7949" width="10.7109375" style="12" customWidth="1"/>
+    <col min="7950" max="8193" width="9.140625" style="12"/>
     <col min="8194" max="8194" width="16" style="12" customWidth="1"/>
-    <col min="8195" max="8199" width="9.15625" style="12"/>
-    <col min="8200" max="8200" width="11.68359375" style="12" customWidth="1"/>
-    <col min="8201" max="8201" width="11.83984375" style="12" customWidth="1"/>
-    <col min="8202" max="8204" width="9.15625" style="12"/>
-    <col min="8205" max="8205" width="10.68359375" style="12" customWidth="1"/>
-    <col min="8206" max="8449" width="9.15625" style="12"/>
+    <col min="8195" max="8199" width="9.140625" style="12"/>
+    <col min="8200" max="8200" width="11.7109375" style="12" customWidth="1"/>
+    <col min="8201" max="8201" width="11.85546875" style="12" customWidth="1"/>
+    <col min="8202" max="8204" width="9.140625" style="12"/>
+    <col min="8205" max="8205" width="10.7109375" style="12" customWidth="1"/>
+    <col min="8206" max="8449" width="9.140625" style="12"/>
     <col min="8450" max="8450" width="16" style="12" customWidth="1"/>
-    <col min="8451" max="8455" width="9.15625" style="12"/>
-    <col min="8456" max="8456" width="11.68359375" style="12" customWidth="1"/>
-    <col min="8457" max="8457" width="11.83984375" style="12" customWidth="1"/>
-    <col min="8458" max="8460" width="9.15625" style="12"/>
-    <col min="8461" max="8461" width="10.68359375" style="12" customWidth="1"/>
-    <col min="8462" max="8705" width="9.15625" style="12"/>
+    <col min="8451" max="8455" width="9.140625" style="12"/>
+    <col min="8456" max="8456" width="11.7109375" style="12" customWidth="1"/>
+    <col min="8457" max="8457" width="11.85546875" style="12" customWidth="1"/>
+    <col min="8458" max="8460" width="9.140625" style="12"/>
+    <col min="8461" max="8461" width="10.7109375" style="12" customWidth="1"/>
+    <col min="8462" max="8705" width="9.140625" style="12"/>
     <col min="8706" max="8706" width="16" style="12" customWidth="1"/>
-    <col min="8707" max="8711" width="9.15625" style="12"/>
-    <col min="8712" max="8712" width="11.68359375" style="12" customWidth="1"/>
-    <col min="8713" max="8713" width="11.83984375" style="12" customWidth="1"/>
-    <col min="8714" max="8716" width="9.15625" style="12"/>
-    <col min="8717" max="8717" width="10.68359375" style="12" customWidth="1"/>
-    <col min="8718" max="8961" width="9.15625" style="12"/>
+    <col min="8707" max="8711" width="9.140625" style="12"/>
+    <col min="8712" max="8712" width="11.7109375" style="12" customWidth="1"/>
+    <col min="8713" max="8713" width="11.85546875" style="12" customWidth="1"/>
+    <col min="8714" max="8716" width="9.140625" style="12"/>
+    <col min="8717" max="8717" width="10.7109375" style="12" customWidth="1"/>
+    <col min="8718" max="8961" width="9.140625" style="12"/>
     <col min="8962" max="8962" width="16" style="12" customWidth="1"/>
-    <col min="8963" max="8967" width="9.15625" style="12"/>
-    <col min="8968" max="8968" width="11.68359375" style="12" customWidth="1"/>
-    <col min="8969" max="8969" width="11.83984375" style="12" customWidth="1"/>
-    <col min="8970" max="8972" width="9.15625" style="12"/>
-    <col min="8973" max="8973" width="10.68359375" style="12" customWidth="1"/>
-    <col min="8974" max="9217" width="9.15625" style="12"/>
+    <col min="8963" max="8967" width="9.140625" style="12"/>
+    <col min="8968" max="8968" width="11.7109375" style="12" customWidth="1"/>
+    <col min="8969" max="8969" width="11.85546875" style="12" customWidth="1"/>
+    <col min="8970" max="8972" width="9.140625" style="12"/>
+    <col min="8973" max="8973" width="10.7109375" style="12" customWidth="1"/>
+    <col min="8974" max="9217" width="9.140625" style="12"/>
     <col min="9218" max="9218" width="16" style="12" customWidth="1"/>
-    <col min="9219" max="9223" width="9.15625" style="12"/>
-    <col min="9224" max="9224" width="11.68359375" style="12" customWidth="1"/>
-    <col min="9225" max="9225" width="11.83984375" style="12" customWidth="1"/>
-    <col min="9226" max="9228" width="9.15625" style="12"/>
-    <col min="9229" max="9229" width="10.68359375" style="12" customWidth="1"/>
-    <col min="9230" max="9473" width="9.15625" style="12"/>
+    <col min="9219" max="9223" width="9.140625" style="12"/>
+    <col min="9224" max="9224" width="11.7109375" style="12" customWidth="1"/>
+    <col min="9225" max="9225" width="11.85546875" style="12" customWidth="1"/>
+    <col min="9226" max="9228" width="9.140625" style="12"/>
+    <col min="9229" max="9229" width="10.7109375" style="12" customWidth="1"/>
+    <col min="9230" max="9473" width="9.140625" style="12"/>
     <col min="9474" max="9474" width="16" style="12" customWidth="1"/>
-    <col min="9475" max="9479" width="9.15625" style="12"/>
-    <col min="9480" max="9480" width="11.68359375" style="12" customWidth="1"/>
-    <col min="9481" max="9481" width="11.83984375" style="12" customWidth="1"/>
-    <col min="9482" max="9484" width="9.15625" style="12"/>
-    <col min="9485" max="9485" width="10.68359375" style="12" customWidth="1"/>
-    <col min="9486" max="9729" width="9.15625" style="12"/>
+    <col min="9475" max="9479" width="9.140625" style="12"/>
+    <col min="9480" max="9480" width="11.7109375" style="12" customWidth="1"/>
+    <col min="9481" max="9481" width="11.85546875" style="12" customWidth="1"/>
+    <col min="9482" max="9484" width="9.140625" style="12"/>
+    <col min="9485" max="9485" width="10.7109375" style="12" customWidth="1"/>
+    <col min="9486" max="9729" width="9.140625" style="12"/>
     <col min="9730" max="9730" width="16" style="12" customWidth="1"/>
-    <col min="9731" max="9735" width="9.15625" style="12"/>
-    <col min="9736" max="9736" width="11.68359375" style="12" customWidth="1"/>
-    <col min="9737" max="9737" width="11.83984375" style="12" customWidth="1"/>
-    <col min="9738" max="9740" width="9.15625" style="12"/>
-    <col min="9741" max="9741" width="10.68359375" style="12" customWidth="1"/>
-    <col min="9742" max="9985" width="9.15625" style="12"/>
+    <col min="9731" max="9735" width="9.140625" style="12"/>
+    <col min="9736" max="9736" width="11.7109375" style="12" customWidth="1"/>
+    <col min="9737" max="9737" width="11.85546875" style="12" customWidth="1"/>
+    <col min="9738" max="9740" width="9.140625" style="12"/>
+    <col min="9741" max="9741" width="10.7109375" style="12" customWidth="1"/>
+    <col min="9742" max="9985" width="9.140625" style="12"/>
     <col min="9986" max="9986" width="16" style="12" customWidth="1"/>
-    <col min="9987" max="9991" width="9.15625" style="12"/>
-    <col min="9992" max="9992" width="11.68359375" style="12" customWidth="1"/>
-    <col min="9993" max="9993" width="11.83984375" style="12" customWidth="1"/>
-    <col min="9994" max="9996" width="9.15625" style="12"/>
-    <col min="9997" max="9997" width="10.68359375" style="12" customWidth="1"/>
-    <col min="9998" max="10241" width="9.15625" style="12"/>
+    <col min="9987" max="9991" width="9.140625" style="12"/>
+    <col min="9992" max="9992" width="11.7109375" style="12" customWidth="1"/>
+    <col min="9993" max="9993" width="11.85546875" style="12" customWidth="1"/>
+    <col min="9994" max="9996" width="9.140625" style="12"/>
+    <col min="9997" max="9997" width="10.7109375" style="12" customWidth="1"/>
+    <col min="9998" max="10241" width="9.140625" style="12"/>
     <col min="10242" max="10242" width="16" style="12" customWidth="1"/>
-    <col min="10243" max="10247" width="9.15625" style="12"/>
-    <col min="10248" max="10248" width="11.68359375" style="12" customWidth="1"/>
-    <col min="10249" max="10249" width="11.83984375" style="12" customWidth="1"/>
-    <col min="10250" max="10252" width="9.15625" style="12"/>
-    <col min="10253" max="10253" width="10.68359375" style="12" customWidth="1"/>
-    <col min="10254" max="10497" width="9.15625" style="12"/>
+    <col min="10243" max="10247" width="9.140625" style="12"/>
+    <col min="10248" max="10248" width="11.7109375" style="12" customWidth="1"/>
+    <col min="10249" max="10249" width="11.85546875" style="12" customWidth="1"/>
+    <col min="10250" max="10252" width="9.140625" style="12"/>
+    <col min="10253" max="10253" width="10.7109375" style="12" customWidth="1"/>
+    <col min="10254" max="10497" width="9.140625" style="12"/>
     <col min="10498" max="10498" width="16" style="12" customWidth="1"/>
-    <col min="10499" max="10503" width="9.15625" style="12"/>
-    <col min="10504" max="10504" width="11.68359375" style="12" customWidth="1"/>
-    <col min="10505" max="10505" width="11.83984375" style="12" customWidth="1"/>
-    <col min="10506" max="10508" width="9.15625" style="12"/>
-    <col min="10509" max="10509" width="10.68359375" style="12" customWidth="1"/>
-    <col min="10510" max="10753" width="9.15625" style="12"/>
+    <col min="10499" max="10503" width="9.140625" style="12"/>
+    <col min="10504" max="10504" width="11.7109375" style="12" customWidth="1"/>
+    <col min="10505" max="10505" width="11.85546875" style="12" customWidth="1"/>
+    <col min="10506" max="10508" width="9.140625" style="12"/>
+    <col min="10509" max="10509" width="10.7109375" style="12" customWidth="1"/>
+    <col min="10510" max="10753" width="9.140625" style="12"/>
     <col min="10754" max="10754" width="16" style="12" customWidth="1"/>
-    <col min="10755" max="10759" width="9.15625" style="12"/>
-    <col min="10760" max="10760" width="11.68359375" style="12" customWidth="1"/>
-    <col min="10761" max="10761" width="11.83984375" style="12" customWidth="1"/>
-    <col min="10762" max="10764" width="9.15625" style="12"/>
-    <col min="10765" max="10765" width="10.68359375" style="12" customWidth="1"/>
-    <col min="10766" max="11009" width="9.15625" style="12"/>
+    <col min="10755" max="10759" width="9.140625" style="12"/>
+    <col min="10760" max="10760" width="11.7109375" style="12" customWidth="1"/>
+    <col min="10761" max="10761" width="11.85546875" style="12" customWidth="1"/>
+    <col min="10762" max="10764" width="9.140625" style="12"/>
+    <col min="10765" max="10765" width="10.7109375" style="12" customWidth="1"/>
+    <col min="10766" max="11009" width="9.140625" style="12"/>
     <col min="11010" max="11010" width="16" style="12" customWidth="1"/>
-    <col min="11011" max="11015" width="9.15625" style="12"/>
-    <col min="11016" max="11016" width="11.68359375" style="12" customWidth="1"/>
-    <col min="11017" max="11017" width="11.83984375" style="12" customWidth="1"/>
-    <col min="11018" max="11020" width="9.15625" style="12"/>
-    <col min="11021" max="11021" width="10.68359375" style="12" customWidth="1"/>
-    <col min="11022" max="11265" width="9.15625" style="12"/>
+    <col min="11011" max="11015" width="9.140625" style="12"/>
+    <col min="11016" max="11016" width="11.7109375" style="12" customWidth="1"/>
+    <col min="11017" max="11017" width="11.85546875" style="12" customWidth="1"/>
+    <col min="11018" max="11020" width="9.140625" style="12"/>
+    <col min="11021" max="11021" width="10.7109375" style="12" customWidth="1"/>
+    <col min="11022" max="11265" width="9.140625" style="12"/>
     <col min="11266" max="11266" width="16" style="12" customWidth="1"/>
-    <col min="11267" max="11271" width="9.15625" style="12"/>
-    <col min="11272" max="11272" width="11.68359375" style="12" customWidth="1"/>
-    <col min="11273" max="11273" width="11.83984375" style="12" customWidth="1"/>
-    <col min="11274" max="11276" width="9.15625" style="12"/>
-    <col min="11277" max="11277" width="10.68359375" style="12" customWidth="1"/>
-    <col min="11278" max="11521" width="9.15625" style="12"/>
+    <col min="11267" max="11271" width="9.140625" style="12"/>
+    <col min="11272" max="11272" width="11.7109375" style="12" customWidth="1"/>
+    <col min="11273" max="11273" width="11.85546875" style="12" customWidth="1"/>
+    <col min="11274" max="11276" width="9.140625" style="12"/>
+    <col min="11277" max="11277" width="10.7109375" style="12" customWidth="1"/>
+    <col min="11278" max="11521" width="9.140625" style="12"/>
     <col min="11522" max="11522" width="16" style="12" customWidth="1"/>
-    <col min="11523" max="11527" width="9.15625" style="12"/>
-    <col min="11528" max="11528" width="11.68359375" style="12" customWidth="1"/>
-    <col min="11529" max="11529" width="11.83984375" style="12" customWidth="1"/>
-    <col min="11530" max="11532" width="9.15625" style="12"/>
-    <col min="11533" max="11533" width="10.68359375" style="12" customWidth="1"/>
-    <col min="11534" max="11777" width="9.15625" style="12"/>
+    <col min="11523" max="11527" width="9.140625" style="12"/>
+    <col min="11528" max="11528" width="11.7109375" style="12" customWidth="1"/>
+    <col min="11529" max="11529" width="11.85546875" style="12" customWidth="1"/>
+    <col min="11530" max="11532" width="9.140625" style="12"/>
+    <col min="11533" max="11533" width="10.7109375" style="12" customWidth="1"/>
+    <col min="11534" max="11777" width="9.140625" style="12"/>
     <col min="11778" max="11778" width="16" style="12" customWidth="1"/>
-    <col min="11779" max="11783" width="9.15625" style="12"/>
-    <col min="11784" max="11784" width="11.68359375" style="12" customWidth="1"/>
-    <col min="11785" max="11785" width="11.83984375" style="12" customWidth="1"/>
-    <col min="11786" max="11788" width="9.15625" style="12"/>
-    <col min="11789" max="11789" width="10.68359375" style="12" customWidth="1"/>
-    <col min="11790" max="12033" width="9.15625" style="12"/>
+    <col min="11779" max="11783" width="9.140625" style="12"/>
+    <col min="11784" max="11784" width="11.7109375" style="12" customWidth="1"/>
+    <col min="11785" max="11785" width="11.85546875" style="12" customWidth="1"/>
+    <col min="11786" max="11788" width="9.140625" style="12"/>
+    <col min="11789" max="11789" width="10.7109375" style="12" customWidth="1"/>
+    <col min="11790" max="12033" width="9.140625" style="12"/>
     <col min="12034" max="12034" width="16" style="12" customWidth="1"/>
-    <col min="12035" max="12039" width="9.15625" style="12"/>
-    <col min="12040" max="12040" width="11.68359375" style="12" customWidth="1"/>
-    <col min="12041" max="12041" width="11.83984375" style="12" customWidth="1"/>
-    <col min="12042" max="12044" width="9.15625" style="12"/>
-    <col min="12045" max="12045" width="10.68359375" style="12" customWidth="1"/>
-    <col min="12046" max="12289" width="9.15625" style="12"/>
+    <col min="12035" max="12039" width="9.140625" style="12"/>
+    <col min="12040" max="12040" width="11.7109375" style="12" customWidth="1"/>
+    <col min="12041" max="12041" width="11.85546875" style="12" customWidth="1"/>
+    <col min="12042" max="12044" width="9.140625" style="12"/>
+    <col min="12045" max="12045" width="10.7109375" style="12" customWidth="1"/>
+    <col min="12046" max="12289" width="9.140625" style="12"/>
     <col min="12290" max="12290" width="16" style="12" customWidth="1"/>
-    <col min="12291" max="12295" width="9.15625" style="12"/>
-    <col min="12296" max="12296" width="11.68359375" style="12" customWidth="1"/>
-    <col min="12297" max="12297" width="11.83984375" style="12" customWidth="1"/>
-    <col min="12298" max="12300" width="9.15625" style="12"/>
-    <col min="12301" max="12301" width="10.68359375" style="12" customWidth="1"/>
-    <col min="12302" max="12545" width="9.15625" style="12"/>
+    <col min="12291" max="12295" width="9.140625" style="12"/>
+    <col min="12296" max="12296" width="11.7109375" style="12" customWidth="1"/>
+    <col min="12297" max="12297" width="11.85546875" style="12" customWidth="1"/>
+    <col min="12298" max="12300" width="9.140625" style="12"/>
+    <col min="12301" max="12301" width="10.7109375" style="12" customWidth="1"/>
+    <col min="12302" max="12545" width="9.140625" style="12"/>
     <col min="12546" max="12546" width="16" style="12" customWidth="1"/>
-    <col min="12547" max="12551" width="9.15625" style="12"/>
-    <col min="12552" max="12552" width="11.68359375" style="12" customWidth="1"/>
-    <col min="12553" max="12553" width="11.83984375" style="12" customWidth="1"/>
-    <col min="12554" max="12556" width="9.15625" style="12"/>
-    <col min="12557" max="12557" width="10.68359375" style="12" customWidth="1"/>
-    <col min="12558" max="12801" width="9.15625" style="12"/>
+    <col min="12547" max="12551" width="9.140625" style="12"/>
+    <col min="12552" max="12552" width="11.7109375" style="12" customWidth="1"/>
+    <col min="12553" max="12553" width="11.85546875" style="12" customWidth="1"/>
+    <col min="12554" max="12556" width="9.140625" style="12"/>
+    <col min="12557" max="12557" width="10.7109375" style="12" customWidth="1"/>
+    <col min="12558" max="12801" width="9.140625" style="12"/>
     <col min="12802" max="12802" width="16" style="12" customWidth="1"/>
-    <col min="12803" max="12807" width="9.15625" style="12"/>
-    <col min="12808" max="12808" width="11.68359375" style="12" customWidth="1"/>
-    <col min="12809" max="12809" width="11.83984375" style="12" customWidth="1"/>
-    <col min="12810" max="12812" width="9.15625" style="12"/>
-    <col min="12813" max="12813" width="10.68359375" style="12" customWidth="1"/>
-    <col min="12814" max="13057" width="9.15625" style="12"/>
+    <col min="12803" max="12807" width="9.140625" style="12"/>
+    <col min="12808" max="12808" width="11.7109375" style="12" customWidth="1"/>
+    <col min="12809" max="12809" width="11.85546875" style="12" customWidth="1"/>
+    <col min="12810" max="12812" width="9.140625" style="12"/>
+    <col min="12813" max="12813" width="10.7109375" style="12" customWidth="1"/>
+    <col min="12814" max="13057" width="9.140625" style="12"/>
     <col min="13058" max="13058" width="16" style="12" customWidth="1"/>
-    <col min="13059" max="13063" width="9.15625" style="12"/>
-    <col min="13064" max="13064" width="11.68359375" style="12" customWidth="1"/>
-    <col min="13065" max="13065" width="11.83984375" style="12" customWidth="1"/>
-    <col min="13066" max="13068" width="9.15625" style="12"/>
-    <col min="13069" max="13069" width="10.68359375" style="12" customWidth="1"/>
-    <col min="13070" max="13313" width="9.15625" style="12"/>
+    <col min="13059" max="13063" width="9.140625" style="12"/>
+    <col min="13064" max="13064" width="11.7109375" style="12" customWidth="1"/>
+    <col min="13065" max="13065" width="11.85546875" style="12" customWidth="1"/>
+    <col min="13066" max="13068" width="9.140625" style="12"/>
+    <col min="13069" max="13069" width="10.7109375" style="12" customWidth="1"/>
+    <col min="13070" max="13313" width="9.140625" style="12"/>
     <col min="13314" max="13314" width="16" style="12" customWidth="1"/>
-    <col min="13315" max="13319" width="9.15625" style="12"/>
-    <col min="13320" max="13320" width="11.68359375" style="12" customWidth="1"/>
-    <col min="13321" max="13321" width="11.83984375" style="12" customWidth="1"/>
-    <col min="13322" max="13324" width="9.15625" style="12"/>
-    <col min="13325" max="13325" width="10.68359375" style="12" customWidth="1"/>
-    <col min="13326" max="13569" width="9.15625" style="12"/>
+    <col min="13315" max="13319" width="9.140625" style="12"/>
+    <col min="13320" max="13320" width="11.7109375" style="12" customWidth="1"/>
+    <col min="13321" max="13321" width="11.85546875" style="12" customWidth="1"/>
+    <col min="13322" max="13324" width="9.140625" style="12"/>
+    <col min="13325" max="13325" width="10.7109375" style="12" customWidth="1"/>
+    <col min="13326" max="13569" width="9.140625" style="12"/>
     <col min="13570" max="13570" width="16" style="12" customWidth="1"/>
-    <col min="13571" max="13575" width="9.15625" style="12"/>
-    <col min="13576" max="13576" width="11.68359375" style="12" customWidth="1"/>
-    <col min="13577" max="13577" width="11.83984375" style="12" customWidth="1"/>
-    <col min="13578" max="13580" width="9.15625" style="12"/>
-    <col min="13581" max="13581" width="10.68359375" style="12" customWidth="1"/>
-    <col min="13582" max="13825" width="9.15625" style="12"/>
+    <col min="13571" max="13575" width="9.140625" style="12"/>
+    <col min="13576" max="13576" width="11.7109375" style="12" customWidth="1"/>
+    <col min="13577" max="13577" width="11.85546875" style="12" customWidth="1"/>
+    <col min="13578" max="13580" width="9.140625" style="12"/>
+    <col min="13581" max="13581" width="10.7109375" style="12" customWidth="1"/>
+    <col min="13582" max="13825" width="9.140625" style="12"/>
     <col min="13826" max="13826" width="16" style="12" customWidth="1"/>
-    <col min="13827" max="13831" width="9.15625" style="12"/>
-    <col min="13832" max="13832" width="11.68359375" style="12" customWidth="1"/>
-    <col min="13833" max="13833" width="11.83984375" style="12" customWidth="1"/>
-    <col min="13834" max="13836" width="9.15625" style="12"/>
-    <col min="13837" max="13837" width="10.68359375" style="12" customWidth="1"/>
-    <col min="13838" max="14081" width="9.15625" style="12"/>
+    <col min="13827" max="13831" width="9.140625" style="12"/>
+    <col min="13832" max="13832" width="11.7109375" style="12" customWidth="1"/>
+    <col min="13833" max="13833" width="11.85546875" style="12" customWidth="1"/>
+    <col min="13834" max="13836" width="9.140625" style="12"/>
+    <col min="13837" max="13837" width="10.7109375" style="12" customWidth="1"/>
+    <col min="13838" max="14081" width="9.140625" style="12"/>
     <col min="14082" max="14082" width="16" style="12" customWidth="1"/>
-    <col min="14083" max="14087" width="9.15625" style="12"/>
-    <col min="14088" max="14088" width="11.68359375" style="12" customWidth="1"/>
-    <col min="14089" max="14089" width="11.83984375" style="12" customWidth="1"/>
-    <col min="14090" max="14092" width="9.15625" style="12"/>
-    <col min="14093" max="14093" width="10.68359375" style="12" customWidth="1"/>
-    <col min="14094" max="14337" width="9.15625" style="12"/>
+    <col min="14083" max="14087" width="9.140625" style="12"/>
+    <col min="14088" max="14088" width="11.7109375" style="12" customWidth="1"/>
+    <col min="14089" max="14089" width="11.85546875" style="12" customWidth="1"/>
+    <col min="14090" max="14092" width="9.140625" style="12"/>
+    <col min="14093" max="14093" width="10.7109375" style="12" customWidth="1"/>
+    <col min="14094" max="14337" width="9.140625" style="12"/>
     <col min="14338" max="14338" width="16" style="12" customWidth="1"/>
-    <col min="14339" max="14343" width="9.15625" style="12"/>
-    <col min="14344" max="14344" width="11.68359375" style="12" customWidth="1"/>
-    <col min="14345" max="14345" width="11.83984375" style="12" customWidth="1"/>
-    <col min="14346" max="14348" width="9.15625" style="12"/>
-    <col min="14349" max="14349" width="10.68359375" style="12" customWidth="1"/>
-    <col min="14350" max="14593" width="9.15625" style="12"/>
+    <col min="14339" max="14343" width="9.140625" style="12"/>
+    <col min="14344" max="14344" width="11.7109375" style="12" customWidth="1"/>
+    <col min="14345" max="14345" width="11.85546875" style="12" customWidth="1"/>
+    <col min="14346" max="14348" width="9.140625" style="12"/>
+    <col min="14349" max="14349" width="10.7109375" style="12" customWidth="1"/>
+    <col min="14350" max="14593" width="9.140625" style="12"/>
     <col min="14594" max="14594" width="16" style="12" customWidth="1"/>
-    <col min="14595" max="14599" width="9.15625" style="12"/>
-    <col min="14600" max="14600" width="11.68359375" style="12" customWidth="1"/>
-    <col min="14601" max="14601" width="11.83984375" style="12" customWidth="1"/>
-    <col min="14602" max="14604" width="9.15625" style="12"/>
-    <col min="14605" max="14605" width="10.68359375" style="12" customWidth="1"/>
-    <col min="14606" max="14849" width="9.15625" style="12"/>
+    <col min="14595" max="14599" width="9.140625" style="12"/>
+    <col min="14600" max="14600" width="11.7109375" style="12" customWidth="1"/>
+    <col min="14601" max="14601" width="11.85546875" style="12" customWidth="1"/>
+    <col min="14602" max="14604" width="9.140625" style="12"/>
+    <col min="14605" max="14605" width="10.7109375" style="12" customWidth="1"/>
+    <col min="14606" max="14849" width="9.140625" style="12"/>
     <col min="14850" max="14850" width="16" style="12" customWidth="1"/>
-    <col min="14851" max="14855" width="9.15625" style="12"/>
-    <col min="14856" max="14856" width="11.68359375" style="12" customWidth="1"/>
-    <col min="14857" max="14857" width="11.83984375" style="12" customWidth="1"/>
-    <col min="14858" max="14860" width="9.15625" style="12"/>
-    <col min="14861" max="14861" width="10.68359375" style="12" customWidth="1"/>
-    <col min="14862" max="15105" width="9.15625" style="12"/>
+    <col min="14851" max="14855" width="9.140625" style="12"/>
+    <col min="14856" max="14856" width="11.7109375" style="12" customWidth="1"/>
+    <col min="14857" max="14857" width="11.85546875" style="12" customWidth="1"/>
+    <col min="14858" max="14860" width="9.140625" style="12"/>
+    <col min="14861" max="14861" width="10.7109375" style="12" customWidth="1"/>
+    <col min="14862" max="15105" width="9.140625" style="12"/>
     <col min="15106" max="15106" width="16" style="12" customWidth="1"/>
-    <col min="15107" max="15111" width="9.15625" style="12"/>
-    <col min="15112" max="15112" width="11.68359375" style="12" customWidth="1"/>
-    <col min="15113" max="15113" width="11.83984375" style="12" customWidth="1"/>
-    <col min="15114" max="15116" width="9.15625" style="12"/>
-    <col min="15117" max="15117" width="10.68359375" style="12" customWidth="1"/>
-    <col min="15118" max="15361" width="9.15625" style="12"/>
+    <col min="15107" max="15111" width="9.140625" style="12"/>
+    <col min="15112" max="15112" width="11.7109375" style="12" customWidth="1"/>
+    <col min="15113" max="15113" width="11.85546875" style="12" customWidth="1"/>
+    <col min="15114" max="15116" width="9.140625" style="12"/>
+    <col min="15117" max="15117" width="10.7109375" style="12" customWidth="1"/>
+    <col min="15118" max="15361" width="9.140625" style="12"/>
     <col min="15362" max="15362" width="16" style="12" customWidth="1"/>
-    <col min="15363" max="15367" width="9.15625" style="12"/>
-    <col min="15368" max="15368" width="11.68359375" style="12" customWidth="1"/>
-    <col min="15369" max="15369" width="11.83984375" style="12" customWidth="1"/>
-    <col min="15370" max="15372" width="9.15625" style="12"/>
-    <col min="15373" max="15373" width="10.68359375" style="12" customWidth="1"/>
-    <col min="15374" max="15617" width="9.15625" style="12"/>
+    <col min="15363" max="15367" width="9.140625" style="12"/>
+    <col min="15368" max="15368" width="11.7109375" style="12" customWidth="1"/>
+    <col min="15369" max="15369" width="11.85546875" style="12" customWidth="1"/>
+    <col min="15370" max="15372" width="9.140625" style="12"/>
+    <col min="15373" max="15373" width="10.7109375" style="12" customWidth="1"/>
+    <col min="15374" max="15617" width="9.140625" style="12"/>
     <col min="15618" max="15618" width="16" style="12" customWidth="1"/>
-    <col min="15619" max="15623" width="9.15625" style="12"/>
-    <col min="15624" max="15624" width="11.68359375" style="12" customWidth="1"/>
-    <col min="15625" max="15625" width="11.83984375" style="12" customWidth="1"/>
-    <col min="15626" max="15628" width="9.15625" style="12"/>
-    <col min="15629" max="15629" width="10.68359375" style="12" customWidth="1"/>
-    <col min="15630" max="15873" width="9.15625" style="12"/>
+    <col min="15619" max="15623" width="9.140625" style="12"/>
+    <col min="15624" max="15624" width="11.7109375" style="12" customWidth="1"/>
+    <col min="15625" max="15625" width="11.85546875" style="12" customWidth="1"/>
+    <col min="15626" max="15628" width="9.140625" style="12"/>
+    <col min="15629" max="15629" width="10.7109375" style="12" customWidth="1"/>
+    <col min="15630" max="15873" width="9.140625" style="12"/>
     <col min="15874" max="15874" width="16" style="12" customWidth="1"/>
-    <col min="15875" max="15879" width="9.15625" style="12"/>
-    <col min="15880" max="15880" width="11.68359375" style="12" customWidth="1"/>
-    <col min="15881" max="15881" width="11.83984375" style="12" customWidth="1"/>
-    <col min="15882" max="15884" width="9.15625" style="12"/>
-    <col min="15885" max="15885" width="10.68359375" style="12" customWidth="1"/>
-    <col min="15886" max="16129" width="9.15625" style="12"/>
+    <col min="15875" max="15879" width="9.140625" style="12"/>
+    <col min="15880" max="15880" width="11.7109375" style="12" customWidth="1"/>
+    <col min="15881" max="15881" width="11.85546875" style="12" customWidth="1"/>
+    <col min="15882" max="15884" width="9.140625" style="12"/>
+    <col min="15885" max="15885" width="10.7109375" style="12" customWidth="1"/>
+    <col min="15886" max="16129" width="9.140625" style="12"/>
     <col min="16130" max="16130" width="16" style="12" customWidth="1"/>
-    <col min="16131" max="16135" width="9.15625" style="12"/>
-    <col min="16136" max="16136" width="11.68359375" style="12" customWidth="1"/>
-    <col min="16137" max="16137" width="11.83984375" style="12" customWidth="1"/>
-    <col min="16138" max="16140" width="9.15625" style="12"/>
-    <col min="16141" max="16141" width="10.68359375" style="12" customWidth="1"/>
-    <col min="16142" max="16384" width="9.15625" style="12"/>
+    <col min="16131" max="16135" width="9.140625" style="12"/>
+    <col min="16136" max="16136" width="11.7109375" style="12" customWidth="1"/>
+    <col min="16137" max="16137" width="11.85546875" style="12" customWidth="1"/>
+    <col min="16138" max="16140" width="9.140625" style="12"/>
+    <col min="16141" max="16141" width="10.7109375" style="12" customWidth="1"/>
+    <col min="16142" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2914,29 +3071,29 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -2956,156 +3113,156 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="67" t="s">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-    </row>
-    <row r="5" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47" t="s">
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
-    </row>
-    <row r="7" spans="1:18" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="46"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47" t="s">
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="83"/>
+    </row>
+    <row r="7" spans="1:18" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="49" t="s">
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="50"/>
-      <c r="L7" s="47" t="s">
+      <c r="K7" s="85"/>
+      <c r="L7" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47" t="s">
+      <c r="M7" s="82"/>
+      <c r="N7" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47" t="s">
+      <c r="O7" s="82"/>
+      <c r="P7" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="Q7" s="48"/>
-    </row>
-    <row r="8" spans="1:18" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="46"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47" t="s">
+      <c r="Q7" s="83"/>
+    </row>
+    <row r="8" spans="1:18" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="49" t="s">
+      <c r="G8" s="82"/>
+      <c r="H8" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
-    </row>
-    <row r="9" spans="1:18" ht="200.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="46"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="70" t="s">
+      <c r="I8" s="85"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="83"/>
+    </row>
+    <row r="9" spans="1:18" ht="200.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="79"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="70" t="s">
+      <c r="I9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="70" t="s">
+      <c r="K9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="70" t="s">
+      <c r="L9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="70" t="s">
+      <c r="M9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="70" t="s">
+      <c r="N9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="70" t="s">
+      <c r="O9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="70" t="s">
+      <c r="P9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="Q9" s="70" t="s">
+      <c r="Q9" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>1</v>
       </c>
@@ -3158,26 +3315,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+    </row>
+    <row r="13" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -3191,98 +3348,92 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="79" t="s">
+    <row r="14" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
-    </row>
-    <row r="15" spans="1:18" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="87"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="85"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="73" t="s">
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
+    </row>
+    <row r="15" spans="1:18" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-    </row>
-    <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="77" t="s">
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+    </row>
+    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="90" t="s">
+      <c r="E19" s="31"/>
+      <c r="F19" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77" t="s">
+      <c r="G19" s="64"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="77"/>
-      <c r="K19" s="91" t="s">
+      <c r="J19" s="30"/>
+      <c r="K19" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="91"/>
+      <c r="L19" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="C14:J14"/>
@@ -3299,8 +3450,14 @@
     <mergeCell ref="L7:M8"/>
     <mergeCell ref="N7:O8"/>
     <mergeCell ref="P7:Q8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
